--- a/xlsx/各国首都列表_intext.xlsx
+++ b/xlsx/各国首都列表_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1840">
   <si>
     <t>各国首都列表</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>世界政區索引</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_各国首都列表</t>
+    <t>世界政区索引</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_各国首都列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%94%BF%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國政府列表</t>
+    <t>各国政府列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%94%BF%E9%AB%94%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國政體列表</t>
+    <t>各国政体列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%B3%95%E5%BE%8B%E5%88%97%E8%A1%A8</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%B0%E5%8D%80%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>國家地區代碼</t>
+    <t>国家地区代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E9%99%86%E5%9C%B0%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國旗列表</t>
+    <t>国旗列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%AD%8C%E5%88%97%E8%A1%A8</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國城市列表</t>
+    <t>各国城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AF%AD%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9F%B7%E6%94%BF%E9%BB%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國執政黨列表</t>
+    <t>各国执政党列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9B%BD%E5%88%97%E8%A1%A8</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AE%98%E5%AD%98%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>殘存國家</t>
+    <t>残存国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83%E5%9B%BD%E5%AE%B6</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%99%B8%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>內陸國家</t>
+    <t>内陆国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%8B%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>島嶼國家列表</t>
+    <t>岛屿国家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E5%A4%9A%E4%B8%AA%E5%9B%BD%E5%AE%B6%E7%9A%84%E5%B2%9B%E5%B1%BF%E5%88%97%E8%A1%A8</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>世界政區</t>
+    <t>世界政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%AE%9C%E8%AB%BE%E6%96%AF%E8%89%BE%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>布宜諾斯艾利斯</t>
+    <t>布宜诺斯艾利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B4%84%E7%BF%B0%E6%96%AF_(%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E9%81%94)</t>
   </si>
   <si>
-    <t>聖約翰斯 (安提瓜和巴布達)</t>
+    <t>圣约翰斯 (安提瓜和巴布达)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦國</t>
+    <t>巴勒斯坦国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%8F%B2%E4%BA%9E</t>
   </si>
   <si>
-    <t>索菲亞</t>
+    <t>索菲亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -971,13 +971,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E7%88%BE%E6%96%AF%E6%B8%AF</t>
   </si>
   <si>
-    <t>托爾斯港</t>
+    <t>托尔斯港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%9A%AE%E6%8F%90</t>
@@ -989,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%AE%B4</t>
@@ -1001,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E6%88%88</t>
@@ -1133,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0)</t>
   </si>
   <si>
-    <t>聖荷西 (哥斯大黎加)</t>
+    <t>圣荷西 (哥斯大黎加)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -1265,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE</t>
   </si>
   <si>
-    <t>首爾</t>
+    <t>首尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E5%AE%97%E5%B8%82</t>
@@ -1499,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B3%B6_(%E7%A7%91%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6)</t>
   </si>
   <si>
-    <t>西島 (科科斯群島)</t>
+    <t>西岛 (科科斯群岛)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%91%A9%E7%BD%97</t>
@@ -2153,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E8%B4%BE</t>
@@ -2243,7 +2243,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
   </si>
   <si>
-    <t>東京</t>
+    <t>东京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -2477,7 +2477,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E4%BC%A6%E5%9D%A1</t>
@@ -2489,7 +2489,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%B3%88%E4%BA%9E%E7%93%A6%E5%BE%B7%E7%B4%8D%E6%99%AE%E6%8B%89%E7%A7%91%E7%89%B9</t>
   </si>
   <si>
-    <t>斯里賈亞瓦德納普拉科特</t>
+    <t>斯里贾亚瓦德纳普拉科特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -2993,7 +2993,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7</t>
   </si>
   <si>
-    <t>東耶路撒冷</t>
+    <t>东耶路撒冷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E7%BB%B4%E5%A4%AB</t>
@@ -3101,7 +3101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B5%AB%E5%88%A9%E5%B0%94</t>
@@ -3143,7 +3143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%90%89</t>
@@ -3167,13 +3167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97%E5%B8%82</t>
   </si>
   <si>
-    <t>臺北市</t>
+    <t>台北市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AC%E9%A9%AC%E9%82%A3</t>
@@ -3191,9 +3191,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%8F%B2%E4%BA%9A</t>
   </si>
   <si>
-    <t>索菲亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
@@ -3215,19 +3212,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%B2%9D%E5%A4%9A</t>
   </si>
   <si>
-    <t>巴貝多</t>
+    <t>巴贝多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9E%E7%B4%90%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>巴布亞紐幾內亞</t>
+    <t>巴布亚纽几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E6%96%AF%E8%B2%9D%E6%B8%AF</t>
   </si>
   <si>
-    <t>摩爾斯貝港</t>
+    <t>摩尔斯贝港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E7%9A%AE%E9%92%A6%E8%AF%AD</t>
@@ -3239,21 +3236,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E9%87%8C%E6%91%A9%E5%9C%96%E8%AA%9E</t>
   </si>
   <si>
-    <t>希里摩圖語</t>
+    <t>希里摩图语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拿馬</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC%E5%9F%8E</t>
   </si>
   <si>
-    <t>巴拿馬城</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%96%87</t>
   </si>
   <si>
@@ -3263,39 +3254,33 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%9D%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>亞松森</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E6%8B%89%E5%B0%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>瓜拉尼語</t>
+    <t>瓜拉尼语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
+    <t>阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%B7%B4%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>以巴衝突</t>
+    <t>以巴冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%B4%8D%E7%91%AA</t>
   </si>
   <si>
-    <t>麥納瑪</t>
+    <t>麦纳玛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴哈馬</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%B4%A2</t>
   </si>
   <si>
@@ -3305,49 +3290,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E7%91%AA%E5%B7%B4%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊斯蘭瑪巴德</t>
+    <t>伊斯兰玛巴德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%88%BE%E9%83%BD%E8%AA%9E</t>
   </si>
   <si>
-    <t>烏爾都語</t>
+    <t>乌尔都语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>巴西利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E6%A5%9A%E7%93%A6%E8%AA%9E</t>
   </si>
   <si>
-    <t>奇楚瓦語</t>
+    <t>奇楚瓦语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%91%AA%E6%8B%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>艾瑪拉語</t>
+    <t>艾玛拉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89</t>
@@ -3365,25 +3344,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>帛琉語</t>
+    <t>帛琉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%B2%99</t>
   </si>
   <si>
-    <t>華沙</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>波蘭語</t>
+    <t>波兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%9C%AD%E9%82%A3</t>
@@ -3401,7 +3374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E8%80%B6%E4%BD%9B</t>
@@ -3413,31 +3386,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>波士尼亞語</t>
+    <t>波士尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>白俄羅斯語</t>
+    <t>白俄罗斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>俄羅斯語</t>
+    <t>俄罗斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8D%97</t>
   </si>
   <si>
-    <t>貝南</t>
+    <t>贝南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%A4%9A%E5%8A%AA</t>
@@ -3449,37 +3419,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%87%8C%E6%96%AF</t>
   </si>
   <si>
-    <t>貝里斯</t>
+    <t>贝里斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E5%A2%A8%E9%82%A6</t>
   </si>
   <si>
-    <t>貝爾墨邦</t>
+    <t>贝尔墨邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%96%87</t>
   </si>
   <si>
-    <t>韓文</t>
+    <t>韩文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%B0%BC%E5%8F%A4%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>北尼古西亞</t>
+    <t>北尼古西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%B0%BC%E7%A7%91%E8%A5%BF%E4%BA%9A</t>
@@ -3491,61 +3461,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>土耳其語</t>
+    <t>土耳其语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>保加利亞語</t>
+    <t>保加利亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%A1%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>布魯塞爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>荷蘭語</t>
+    <t>荷兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E9%9B%85%E7%B6%AD%E5%85%8B</t>
   </si>
   <si>
-    <t>雷克雅維克</t>
+    <t>雷克雅维克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>冰島語</t>
+    <t>冰岛语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B8%83</t>
@@ -3557,13 +3515,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E5%96%80%E8%AA%9E</t>
   </si>
   <si>
-    <t>宗喀語</t>
+    <t>宗喀语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -3587,9 +3545,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%81%94%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>馬達加斯加</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A1%94%E9%82%A3%E9%82%A3%E5%88%A9%E4%BD%9B</t>
   </si>
   <si>
@@ -3599,13 +3554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%8A%A0%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>馬拉加斯語</t>
+    <t>马拉加斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
   </si>
   <si>
-    <t>馬拉威</t>
+    <t>马拉威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%9C%97%E5%A8%81</t>
@@ -3623,13 +3578,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>馬來語</t>
+    <t>马来语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%AA%E5%A4%B7%E6%96%87</t>
@@ -3641,15 +3593,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%88%A9</t>
   </si>
   <si>
-    <t>馬利</t>
+    <t>马利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%A6%AC%E7%A7%91</t>
   </si>
   <si>
-    <t>巴馬科</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%B7%B4%E6%8B%89%E8%AF%AD</t>
   </si>
   <si>
@@ -3659,9 +3608,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93</t>
   </si>
   <si>
-    <t>馬其頓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E6%99%AE%E8%80%B6</t>
   </si>
   <si>
@@ -3671,19 +3617,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>馬其頓語</t>
+    <t>马其顿语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬紹爾群島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B9%85%E7%BE%85</t>
   </si>
   <si>
-    <t>馬久羅</t>
+    <t>马久罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BB%8D%E5%B0%94%E8%AF%AD</t>
@@ -3695,25 +3638,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾地夫</t>
+    <t>马尔地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%8B</t>
   </si>
   <si>
-    <t>馬律</t>
+    <t>马律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E7%B6%AD%E5%B8%8C%E8%AA%9E</t>
   </si>
   <si>
-    <t>迪維希語</t>
+    <t>迪维希语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8B%92%E4%BB%96</t>
@@ -3725,15 +3668,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E8%AA%9E</t>
   </si>
   <si>
-    <t>馬爾他語</t>
+    <t>马尔他语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%BA%B3%E5%93%A5%E5%9F%8E</t>
   </si>
   <si>
@@ -3743,7 +3683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9F%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>柏柏語</t>
+    <t>柏柏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E9%87%8C%E8%A5%BF%E6%96%AF</t>
@@ -3761,7 +3701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E7%89%B9%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>納瓦特爾語</t>
+    <t>纳瓦特尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E4%B8%89%E6%AF%94%E5%85%8B</t>
@@ -3773,15 +3713,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%B8%83%E5%A4%9A</t>
   </si>
   <si>
-    <t>馬布多</t>
+    <t>马布多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6</t>
   </si>
   <si>
-    <t>摩爾多瓦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B8%8C%E6%B6%85%E5%A4%AB</t>
   </si>
   <si>
@@ -3791,61 +3728,55 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞語</t>
+    <t>罗马尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>茅利塔尼亞</t>
+    <t>茅利塔尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%85%8B%E5%B0%91</t>
   </si>
   <si>
-    <t>諾克少</t>
+    <t>诺克少</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>曼島語</t>
+    <t>曼岛语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%98%AD%E5%B7%B4%E6%89%98</t>
   </si>
   <si>
-    <t>烏蘭巴托</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E8%AA%9E</t>
   </si>
   <si>
-    <t>蒙古語</t>
+    <t>蒙古语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%B0%BC%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特尼哥羅</t>
+    <t>蒙特尼哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85%E8%AA%9E</t>
   </si>
   <si>
-    <t>蒙特內哥羅語</t>
+    <t>蒙特内哥罗语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89</t>
@@ -3857,21 +3788,15 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E5%8D%A1</t>
   </si>
   <si>
-    <t>達卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>孟加拉語</t>
+    <t>孟加拉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E6%AF%94%E5%A4%9A</t>
   </si>
   <si>
@@ -3881,123 +3806,90 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8%E8%AA%9E</t>
   </si>
   <si>
-    <t>緬甸語</t>
+    <t>缅甸语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E9%A6%AC</t>
   </si>
   <si>
-    <t>利馬</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>密克羅尼西亞</t>
+    <t>密克罗尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%88%A9%E5%9F%BA%E7%88%BE</t>
   </si>
   <si>
-    <t>帕利基爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%B0%BC%E6%8B%89</t>
   </si>
   <si>
-    <t>馬尼拉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>菲律賓語</t>
+    <t>菲律宾语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%93%A6</t>
   </si>
   <si>
-    <t>蘇瓦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>斐濟語</t>
+    <t>斐济语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F%E5%8D%B0%E5%9C%B0%E6%96%87</t>
   </si>
   <si>
-    <t>斐濟印地文</t>
+    <t>斐济印地文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>義大利語</t>
+    <t>义大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉丁語</t>
+    <t>拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E8%BE%9B%E5%9F%BA</t>
   </si>
   <si>
-    <t>赫爾辛基</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>芬蘭語</t>
+    <t>芬兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E</t>
   </si>
   <si>
-    <t>瑞典語</t>
+    <t>瑞典语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%96%87</t>
   </si>
   <si>
@@ -4007,39 +3899,33 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>丹麥語</t>
+    <t>丹麦语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%A2%AD</t>
   </si>
   <si>
-    <t>羅梭</t>
+    <t>罗梭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E6%98%8E%E5%93%A5</t>
   </si>
   <si>
-    <t>聖多明哥</t>
+    <t>圣多明哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B8%9D%E6%B1%B6</t>
   </si>
   <si>
-    <t>東帝汶</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E5%8A%9B</t>
   </si>
   <si>
@@ -4049,45 +3935,42 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%A0%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>德頓語</t>
+    <t>德顿语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0</t>
   </si>
   <si>
-    <t>東加</t>
+    <t>东加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E7%93%9C%E5%A9%81%E7%99%BC</t>
   </si>
   <si>
-    <t>奴瓜婁發</t>
+    <t>奴瓜娄发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0%E8%AA%9E</t>
   </si>
   <si>
-    <t>東加語</t>
+    <t>东加语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%B0%9A%E8%B2%9D</t>
   </si>
   <si>
-    <t>杜尚貝</t>
+    <t>杜尚贝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>塔吉克語</t>
+    <t>塔吉克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%96%87</t>
   </si>
   <si>
@@ -4097,37 +3980,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B0%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>坦尚尼亞</t>
+    <t>坦尚尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E7%AF%A4%E7%91%AA</t>
   </si>
   <si>
-    <t>杜篤瑪</t>
+    <t>杜笃玛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%98%AD%E6%B8%AF</t>
   </si>
   <si>
-    <t>三蘭港</t>
+    <t>三兰港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B8%8C%E9%87%8C%E8%AA%9E</t>
   </si>
   <si>
-    <t>斯瓦希里語</t>
+    <t>斯瓦希里语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC</t>
   </si>
   <si>
-    <t>土庫曼</t>
+    <t>土库曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%80%E5%93%88%E5%B7%B4%E7%89%B9</t>
@@ -4139,19 +4022,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>土庫曼語</t>
+    <t>土库曼语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%90%E7%93%A6%E9%AD%AF</t>
   </si>
   <si>
-    <t>吐瓦魯</t>
+    <t>吐瓦鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%B4%8D%E4%BD%9B%E6%8F%90</t>
   </si>
   <si>
-    <t>福納佛提</t>
+    <t>福纳佛提</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%93%A6%E5%8D%A2%E8%AF%AD</t>
@@ -4169,15 +4052,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E6%89%98%E9%87%8C%E4%BA%9E</t>
   </si>
   <si>
-    <t>普利托里亞</t>
+    <t>普利托里亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%99%AE%E6%95%A6</t>
   </si>
   <si>
-    <t>開普敦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9A%86%E6%B3%89</t>
   </si>
   <si>
@@ -4187,49 +4067,40 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>南非語</t>
+    <t>南非语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%96%E9%AD%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>祖魯語</t>
+    <t>祖鲁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%96%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>科薩語</t>
+    <t>科萨语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BE%B7%E6%BB%BF%E9%83%BD</t>
   </si>
   <si>
-    <t>加德滿都</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>尼泊爾語</t>
+    <t>尼泊尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%BF%E7%93%9C</t>
   </si>
   <si>
-    <t>馬拿瓜</t>
+    <t>马拿瓜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5</t>
@@ -4247,27 +4118,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E9%9D%88%E9%A0%93</t>
   </si>
   <si>
-    <t>威靈頓</t>
+    <t>威灵顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>毛利語</t>
+    <t>毛利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B4%9B%E9%9D%9E</t>
   </si>
   <si>
@@ -4277,61 +4145,52 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%AD%AF</t>
   </si>
   <si>
-    <t>諾魯</t>
+    <t>诺鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%80%AB%E5%8D%80</t>
   </si>
   <si>
-    <t>亞倫區</t>
+    <t>亚伦区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E9%99%B8</t>
   </si>
   <si>
-    <t>奧斯陸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>挪威語</t>
+    <t>挪威语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞語</t>
+    <t>拉脱维亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E6%AF%94%E7%91%9E%E4%BA%9E</t>
   </si>
   <si>
-    <t>賴比瑞亞</t>
+    <t>赖比瑞亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%BE%85%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>蒙羅維亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%A1%9E%E9%AD%AF</t>
   </si>
   <si>
-    <t>馬塞魯</t>
+    <t>马塞鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B4%A2%E6%89%98%E8%AF%AD</t>
@@ -4343,25 +4202,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%AD%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>貝魯特</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>利比亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E7%B4%90%E6%96%AF</t>
   </si>
   <si>
-    <t>維爾紐斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%AA%9E</t>
   </si>
   <si>
-    <t>立陶宛語</t>
+    <t>立陶宛语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
@@ -4373,13 +4223,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%83%BD%E8%8C%B2</t>
   </si>
   <si>
-    <t>瓦都茲</t>
+    <t>瓦都兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AE%E5%9C%8B</t>
   </si>
   <si>
-    <t>寮國</t>
+    <t>寮国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AE%E8%AF%AD</t>
@@ -4391,25 +4241,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1_(%E5%9F%8E%E5%B8%82)</t>
   </si>
   <si>
-    <t>盧森堡 (城市)</t>
+    <t>卢森堡 (城市)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E8%AA%9E</t>
   </si>
   <si>
-    <t>盧森堡語</t>
+    <t>卢森堡语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%AE%89%E9%81%94</t>
   </si>
   <si>
-    <t>盧安達</t>
+    <t>卢安达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E4%BD%B3%E5%88%A9</t>
@@ -4427,45 +4274,33 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
   </si>
   <si>
-    <t>罗马尼亚语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>瓜地馬拉</t>
+    <t>瓜地马拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89%E5%B8%82</t>
   </si>
   <si>
-    <t>瓜地馬拉市</t>
+    <t>瓜地马拉市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%96%AC%E6%B2%BB</t>
   </si>
   <si>
-    <t>聖喬治</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0</t>
   </si>
   <si>
@@ -4475,19 +4310,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>蓋亞那</t>
+    <t>盖亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E5%9F%8E_(%E8%93%8B%E4%BA%9E%E9%82%A3)</t>
   </si>
   <si>
-    <t>喬治城 (蓋亞那)</t>
+    <t>乔治城 (盖亚那)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>甘比亞</t>
+    <t>甘比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E7%AB%B9%E5%B8%82</t>
@@ -4499,7 +4334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E6%81%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>根息島</t>
+    <t>根息岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%83%E5%A4%96%E9%A2%86</t>
@@ -4517,19 +4352,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C</t>
   </si>
   <si>
-    <t>剛果</t>
+    <t>刚果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%9C%AD%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>布拉札維爾</t>
+    <t>布拉札维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%93%88</t>
@@ -4541,9 +4376,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
   </si>
   <si>
-    <t>阿拉伯语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
   </si>
   <si>
@@ -4565,19 +4397,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A5%E9%9A%86</t>
   </si>
   <si>
-    <t>喀麥隆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E6%BA%AB%E5%BE%B7</t>
   </si>
   <si>
-    <t>雅溫德</t>
+    <t>雅温德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AD%E6%A0%BC%E6%8B%89%E5%B8%83</t>
@@ -4589,7 +4418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞語</t>
+    <t>克罗埃西亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9%E5%B8%82</t>
@@ -4601,7 +4430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
   </si>
   <si>
-    <t>肯亞</t>
+    <t>肯亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E6%B4%9B%E6%AF%94</t>
@@ -4613,51 +4442,42 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B</t>
   </si>
   <si>
-    <t>哈薩克</t>
+    <t>哈萨克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%A1%94%E7%B4%8D</t>
   </si>
   <si>
-    <t>阿斯塔納</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>哈薩克語</t>
+    <t>哈萨克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
   </si>
   <si>
-    <t>俄語</t>
+    <t>俄语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%85%8B%E9%87%8C%E5%A5%A7%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>海地克里奧爾語</t>
+    <t>海地克里奥尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE%E5%B8%82</t>
   </si>
   <si>
-    <t>首爾市</t>
+    <t>首尔市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B0%94%E5%B8%82</t>
   </si>
   <si>
-    <t>首尔市</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E9%83%BD%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
@@ -4685,33 +4505,30 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E9%87%8C%E5%B7%B4%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>吉里巴斯語</t>
+    <t>吉里巴斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E5%87%B1%E5%85%8B</t>
   </si>
   <si>
-    <t>比斯凱克</t>
+    <t>比斯凯克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>吉爾吉斯語</t>
+    <t>吉尔吉斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>幾內亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E9%82%A3%E5%85%8B%E9%87%8C</t>
   </si>
   <si>
@@ -4727,13 +4544,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E6%8B%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>富拉語</t>
+    <t>富拉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BD%AD</t>
@@ -4745,49 +4562,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B3%A2%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>利波維爾</t>
+    <t>利波维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E7%B4%8D</t>
   </si>
   <si>
-    <t>迦納</t>
+    <t>迦纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A5%E5%A4%AA%E8%8F%AF</t>
   </si>
   <si>
-    <t>渥太華</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>美洲原住民語言</t>
+    <t>美洲原住民语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>捷克語</t>
+    <t>捷克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%82%8A</t>
   </si>
   <si>
-    <t>金邊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A3%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>高棉語</t>
+    <t>高棉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E</t>
   </si>
   <si>
-    <t>喬治亞</t>
+    <t>乔治亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%AF%94%E5%88%A9%E8%A5%BF</t>
@@ -4799,55 +4610,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>喬治亞語</t>
+    <t>乔治亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C</t>
   </si>
   <si>
-    <t>馬德里</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E8%A5%BF%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>加利西亞語</t>
+    <t>加利西亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E9%9A%86%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>加泰隆尼亞語</t>
+    <t>加泰隆尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>巴斯克語</t>
+    <t>巴斯克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E6%96%87</t>
   </si>
   <si>
-    <t>希臘文</t>
+    <t>希腊文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%A0%BC%E9%87%8C%E5%B8%83%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>馬格里布阿拉伯語</t>
+    <t>马格里布阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -4859,13 +4664,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E7%B4%8D%E8%AA%9E</t>
   </si>
   <si>
-    <t>修納語</t>
+    <t>修纳语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E7%B1%B3%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>坦米爾語</t>
+    <t>坦米尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E7%89%99%E6%B5%B7%E5%B2%B8</t>
@@ -4889,25 +4694,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%A6%AC%E5%A3%AB%E9%9D%A9</t>
   </si>
   <si>
-    <t>大馬士革</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%81%94%E4%BD%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>布達佩斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>匈牙利語</t>
+    <t>匈牙利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%9F%BA</t>
@@ -4937,19 +4733,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>赤道幾內亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E6%B3%A2</t>
   </si>
   <si>
-    <t>馬拉波</t>
+    <t>马拉波</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%BE%B7</t>
@@ -4961,7 +4751,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E5%8A%A0%E7%BE%8E%E7%B4%8D</t>
   </si>
   <si>
-    <t>恩加美納</t>
+    <t>恩加美纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%9F%8E</t>
@@ -4973,25 +4763,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E7%93%A6%E6%BF%9F%E8%98%AD</t>
   </si>
   <si>
-    <t>史瓦濟蘭</t>
+    <t>史瓦济兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%86%E5%B7%B4%E5%B7%B4%E7%B4%8D</t>
   </si>
   <si>
-    <t>姆巴巴納</t>
+    <t>姆巴巴纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E7%93%A6%E6%BF%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>史瓦濟語</t>
+    <t>史瓦济语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E9%9B%85%E5%BE%B7</t>
@@ -5009,7 +4799,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%B2%99%E5%8D%A1</t>
@@ -5021,19 +4811,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%A9%E8%AB%BE</t>
   </si>
   <si>
-    <t>聖馬利諾</t>
+    <t>圣马利诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E8%88%87%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美與普林西比</t>
+    <t>圣多美与普林西比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9C%B2%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>聖露西亞</t>
+    <t>圣露西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E7%BF%A0</t>
@@ -5045,7 +4835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E5%9C%B0</t>
@@ -5057,7 +4847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%96%AF%E6%95%A6_(%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF)</t>
@@ -5069,9 +4859,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9</t>
   </si>
   <si>
-    <t>斯德哥爾摩</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%81%A9</t>
   </si>
   <si>
@@ -5081,19 +4868,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%9B%BC%E4%BB%80%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅曼什語</t>
+    <t>罗曼什语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF%E5%B3%B6</t>
   </si>
   <si>
-    <t>澤西島</t>
+    <t>泽西岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%89%BE%E5%88%A9%E8%80%B6</t>
   </si>
   <si>
-    <t>聖艾利耶</t>
+    <t>圣艾利耶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%BD%E8%A5%BF%E8%AF%AD%E6%96%87%E5%AD%A6</t>
@@ -5105,19 +4892,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%80%AB%E5%9D%A1</t>
   </si>
   <si>
-    <t>可倫坡</t>
+    <t>可伦坡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%A7%E4%BC%BD%E7%BE%85%E8%AA%9E</t>
   </si>
   <si>
-    <t>僧伽羅語</t>
+    <t>僧伽罗语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%8F%90%E6%96%AF%E6%8B%89%E7%93%A6</t>
@@ -5129,121 +4913,106 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>斯洛伐克語</t>
+    <t>斯洛伐克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%B8%83%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>盧布亞那</t>
+    <t>卢布亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞語</t>
+    <t>斯洛维尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>薩摩亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%BA%87%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿庇亞</t>
+    <t>阿庇亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%91%A9%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>薩摩亞語</t>
+    <t>萨摩亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>聖薩爾瓦多</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>尼古西亞</t>
+    <t>尼古西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>希臘語</t>
+    <t>希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE</t>
   </si>
   <si>
-    <t>塞內加爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B8%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>塞席爾</t>
+    <t>塞席尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E6%A0%BC%E5%8B%92</t>
   </si>
   <si>
-    <t>貝爾格勒</t>
+    <t>贝尔格勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞語</t>
+    <t>塞尔维亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E9%A6%AC%E5%88%A9%E6%B3%A2</t>
   </si>
   <si>
-    <t>巴拉馬利波</t>
+    <t>巴拉马利波</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%8A%A0%E8%BF%AA%E4%BC%91</t>
@@ -5255,63 +5024,51 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>索馬利亞語</t>
+    <t>索马利亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BE%85%E9%96%80%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>所羅門群島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B0%BC%E4%BA%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>荷尼亞拉</t>
+    <t>荷尼亚拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%96%AF%E5%96%80%E7%89%B9</t>
   </si>
   <si>
-    <t>馬斯喀特</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E5%B8%83%E7%88%BE</t>
   </si>
   <si>
-    <t>喀布爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%BB%80%E5%9C%96%E8%AA%9E</t>
   </si>
   <si>
-    <t>普什圖語</t>
+    <t>普什图语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>達利語</t>
+    <t>达利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E9%81%94%E6%AF%94</t>
   </si>
   <si>
-    <t>阿布達比</t>
+    <t>阿布达比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%9A%AE%E9%98%BF%E9%97%A8%E6%89%98%E8%AF%AD</t>
   </si>
   <si>
@@ -5321,37 +5078,28 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞語</t>
+    <t>阿尔巴尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾及利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>阿爾及爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%88%A9%E5%9E%82%E4%BA%9E</t>
   </si>
   <si>
-    <t>厄利垂亞</t>
+    <t>厄利垂亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E7%91%AA%E6%8B%89</t>
   </si>
   <si>
-    <t>阿斯瑪拉</t>
+    <t>阿斯玛拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%A0%BC%E9%9B%B7%E8%AF%AD</t>
@@ -5363,9 +5111,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E6%96%87</t>
   </si>
   <si>
@@ -5381,39 +5126,30 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%BE%85</t>
   </si>
   <si>
-    <t>開羅</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞語</t>
+    <t>爱沙尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>愛爾蘭語</t>
+    <t>爱尔兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E5%9F%B9%E6%8B%89</t>
   </si>
   <si>
@@ -5423,37 +5159,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D</t>
   </si>
   <si>
-    <t>維也納</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE</t>
   </si>
   <si>
-    <t>安道爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE%E5%9F%8E</t>
   </si>
   <si>
-    <t>安道爾城</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>加泰羅尼亞語</t>
+    <t>加泰罗尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BA%A6%E7%BF%B0%E5%B8%82_(%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE)</t>
@@ -5465,87 +5189,78 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%AE%89%E9%81%94</t>
   </si>
   <si>
-    <t>魯安達</t>
+    <t>鲁安达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E6%96%87</t>
   </si>
   <si>
-    <t>義大利文</t>
+    <t>义大利文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E9%81%94</t>
   </si>
   <si>
-    <t>巴格達</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>庫德語</t>
+    <t>库德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%BB%91%E8%98%AD</t>
   </si>
   <si>
-    <t>德黑蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>波斯語</t>
+    <t>波斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E5%8C%B9%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索匹亞</t>
+    <t>衣索匹亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%BF%AA%E6%96%AF%E9%98%BF%E8%B2%9D%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿迪斯阿貝巴</t>
+    <t>阿迪斯阿贝巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E5%93%88%E6%8B%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿姆哈拉語</t>
+    <t>阿姆哈拉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%8B%89%E7%B6%AD%E5%A4%AB</t>
   </si>
   <si>
-    <t>台拉維夫</t>
+    <t>台拉维夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>希伯來語</t>
+    <t>希伯来语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%96%AF%E6%95%A6</t>
   </si>
   <si>
@@ -5555,43 +5270,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%87%8C%E6%BA%AB</t>
   </si>
   <si>
-    <t>葉里溫</t>
+    <t>叶里温</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞語</t>
+    <t>亚美尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6</t>
   </si>
   <si>
-    <t>亞塞拜然</t>
+    <t>亚塞拜然</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%BA%AB</t>
   </si>
   <si>
-    <t>巴庫</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>亞塞拜然語</t>
+    <t>亚塞拜然语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%82%A3</t>
@@ -5609,31 +5318,28 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%8A%A0%E9%81%94</t>
   </si>
   <si>
-    <t>雅加達</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>印尼語</t>
+    <t>印尼语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%96%A9%E5%A7%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿薩姆語</t>
+    <t>阿萨姆语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%90%89%E6%8B%89%E7%89%B9%E8%AA%9E</t>
   </si>
   <si>
-    <t>古吉拉特語</t>
+    <t>古吉拉特语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>印地語</t>
+    <t>印地语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BA%B3%E8%BE%BE%E8%AF%AD</t>
@@ -5645,19 +5351,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%94%E5%8D%A1%E5%B0%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>孔卡尼語</t>
+    <t>孔卡尼语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E9%9B%85%E6%8B%89%E5%A7%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>馬拉雅拉姆語</t>
+    <t>马拉雅拉姆语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E8%92%82%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>邁蒂利語</t>
+    <t>迈蒂利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%87%8C%E4%BA%9A%E8%AF%AD</t>
@@ -5669,93 +5375,75 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%81%E9%81%AE%E6%99%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>旁遮普語</t>
+    <t>旁遮普语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%AA%9E</t>
   </si>
   <si>
-    <t>梵語</t>
+    <t>梵语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%9B%A7%E5%9B%BA%E8%AA%9E</t>
   </si>
   <si>
-    <t>泰盧固語</t>
+    <t>泰卢固语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E4%BB%80%E7%B1%B3%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>克什米爾語</t>
+    <t>克什米尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>威爾斯語</t>
+    <t>威尔斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%9C%B0%E8%98%87%E6%A0%BC%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>低地蘇格蘭語</t>
+    <t>低地苏格兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E8%93%8B%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>蘇格蘭蓋爾語</t>
+    <t>苏格兰盖尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%93%A6%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>康瓦爾語</t>
+    <t>康瓦尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
-    <t>烏拉圭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E7%B6%AD%E5%A4%9A</t>
   </si>
   <si>
-    <t>蒙特維多</t>
+    <t>蒙特维多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
   </si>
   <si>
-    <t>烏干達</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%BC%94</t>
   </si>
   <si>
-    <t>基輔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0%E6%96%87</t>
   </si>
   <si>
@@ -5765,33 +5453,30 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>烏茲別克語</t>
+    <t>乌兹别克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%BE%B7%E8%A7%92</t>
   </si>
   <si>
-    <t>維德角</t>
+    <t>维德角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B9%E4%BA%9E</t>
   </si>
   <si>
-    <t>培亞</t>
+    <t>培亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E5%8D%A1%E6%96%AF</t>
   </si>
   <si>
@@ -5801,33 +5486,27 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E9%82%A3%E6%9D%9C</t>
   </si>
   <si>
-    <t>萬那杜</t>
+    <t>万那杜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%8B%89%E6%B8%AF</t>
   </si>
   <si>
-    <t>維拉港</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%B2%9D%E5%8A%A0%E8%90%AC%E5%B8%82</t>
   </si>
   <si>
-    <t>斯里貝加萬市</t>
+    <t>斯里贝加万市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%85%A7</t>
   </si>
   <si>
-    <t>河內</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%96%87</t>
   </si>
   <si>
@@ -5837,25 +5516,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國中央情報局</t>
+    <t>美国中央情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國外交部</t>
+    <t>中华民国外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E9%83%B5%E6%94%BF</t>
   </si>
   <si>
-    <t>中華郵政</t>
+    <t>中华邮政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%95%99%E8%82%B2%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>國家教育研究院</t>
+    <t>国家教育研究院</t>
   </si>
 </sst>
 </file>
@@ -21741,7 +21420,7 @@
         <v>1057</v>
       </c>
       <c r="F536" t="s">
-        <v>1058</v>
+        <v>202</v>
       </c>
       <c r="G536" t="n">
         <v>2</v>
@@ -21854,10 +21533,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F540" t="s">
         <v>1059</v>
-      </c>
-      <c r="F540" t="s">
-        <v>1060</v>
       </c>
       <c r="G540" t="n">
         <v>3</v>
@@ -21883,10 +21562,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F541" t="s">
         <v>1061</v>
-      </c>
-      <c r="F541" t="s">
-        <v>1062</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -21912,10 +21591,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F542" t="s">
         <v>1063</v>
-      </c>
-      <c r="F542" t="s">
-        <v>1064</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -21941,10 +21620,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F543" t="s">
         <v>1065</v>
-      </c>
-      <c r="F543" t="s">
-        <v>1066</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -21999,10 +21678,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F545" t="s">
         <v>1067</v>
-      </c>
-      <c r="F545" t="s">
-        <v>1068</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -22028,10 +21707,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F546" t="s">
         <v>1069</v>
-      </c>
-      <c r="F546" t="s">
-        <v>1070</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -22057,10 +21736,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F547" t="s">
         <v>1071</v>
-      </c>
-      <c r="F547" t="s">
-        <v>1072</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -22086,10 +21765,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F548" t="s">
         <v>1073</v>
-      </c>
-      <c r="F548" t="s">
-        <v>1074</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -22115,10 +21794,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F549" t="s">
-        <v>1076</v>
+        <v>184</v>
       </c>
       <c r="G549" t="n">
         <v>2</v>
@@ -22144,10 +21823,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F550" t="s">
-        <v>1078</v>
+        <v>186</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -22173,10 +21852,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F551" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="G551" t="n">
         <v>5</v>
@@ -22202,10 +21881,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="F552" t="s">
-        <v>1082</v>
+        <v>172</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -22231,10 +21910,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="F553" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="G553" t="n">
         <v>2</v>
@@ -22260,10 +21939,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="F554" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="G554" t="n">
         <v>20</v>
@@ -22289,10 +21968,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="F555" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -22318,10 +21997,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="F556" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -22347,10 +22026,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="F557" t="s">
-        <v>1092</v>
+        <v>162</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -22376,10 +22055,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="F558" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -22405,10 +22084,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="F559" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -22434,10 +22113,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="F560" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -22463,10 +22142,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="F561" t="s">
-        <v>1100</v>
+        <v>190</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -22492,10 +22171,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F562" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="G562" t="n">
         <v>8</v>
@@ -22550,10 +22229,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="F564" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="G564" t="n">
         <v>16</v>
@@ -22579,10 +22258,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="F565" t="s">
-        <v>1106</v>
+        <v>242</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -22608,10 +22287,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="F566" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="G566" t="n">
         <v>2</v>
@@ -22637,10 +22316,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="F567" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -22666,10 +22345,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="F568" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="G568" t="n">
         <v>2</v>
@@ -22695,10 +22374,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="F569" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -22724,10 +22403,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="F570" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -22753,10 +22432,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="F571" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -22782,10 +22461,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="F572" t="s">
-        <v>1118</v>
+        <v>230</v>
       </c>
       <c r="G572" t="n">
         <v>2</v>
@@ -22811,10 +22490,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="F573" t="s">
-        <v>1120</v>
+        <v>232</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -22840,10 +22519,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="F574" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -22869,10 +22548,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="F575" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -22898,10 +22577,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="F576" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -22927,10 +22606,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="F577" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -22956,10 +22635,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="F578" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -22985,10 +22664,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="F579" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -23014,10 +22693,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="F580" t="s">
-        <v>1134</v>
+        <v>192</v>
       </c>
       <c r="G580" t="n">
         <v>2</v>
@@ -23043,10 +22722,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="F581" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -23072,10 +22751,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="F582" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="G582" t="n">
         <v>2</v>
@@ -23101,10 +22780,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="F583" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="G583" t="n">
         <v>2</v>
@@ -23159,10 +22838,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="F585" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -23188,10 +22867,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="F586" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="G586" t="n">
         <v>30</v>
@@ -23217,10 +22896,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="F587" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -23246,10 +22925,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="F588" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -23275,10 +22954,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="F589" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="G589" t="n">
         <v>2</v>
@@ -23304,10 +22983,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="F590" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -23333,10 +23012,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="F591" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -23362,10 +23041,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="F592" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -23391,10 +23070,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="F593" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="G593" t="n">
         <v>3</v>
@@ -23420,10 +23099,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="F594" t="s">
-        <v>1160</v>
+        <v>200</v>
       </c>
       <c r="G594" t="n">
         <v>2</v>
@@ -23478,10 +23157,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="F596" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -23507,10 +23186,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="F597" t="s">
-        <v>1164</v>
+        <v>214</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -23536,10 +23215,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="F598" t="s">
-        <v>1166</v>
+        <v>216</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -23565,10 +23244,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1167</v>
+        <v>1154</v>
       </c>
       <c r="F599" t="s">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="G599" t="n">
         <v>3</v>
@@ -23594,10 +23273,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1169</v>
+        <v>1156</v>
       </c>
       <c r="F600" t="s">
-        <v>1170</v>
+        <v>1157</v>
       </c>
       <c r="G600" t="n">
         <v>4</v>
@@ -23623,10 +23302,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1171</v>
+        <v>1158</v>
       </c>
       <c r="F601" t="s">
-        <v>1172</v>
+        <v>222</v>
       </c>
       <c r="G601" t="n">
         <v>2</v>
@@ -23652,10 +23331,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="F602" t="s">
-        <v>1174</v>
+        <v>1160</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -23681,10 +23360,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="F603" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -23710,10 +23389,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="F604" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -23739,10 +23418,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="F605" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="G605" t="n">
         <v>3</v>
@@ -23768,10 +23447,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="F606" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -23797,10 +23476,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1183</v>
+        <v>1169</v>
       </c>
       <c r="F607" t="s">
-        <v>1184</v>
+        <v>1170</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -23826,10 +23505,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
       <c r="F608" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -23855,10 +23534,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="F609" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -23884,10 +23563,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="F610" t="s">
-        <v>1190</v>
+        <v>576</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -23913,10 +23592,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1191</v>
+        <v>1176</v>
       </c>
       <c r="F611" t="s">
-        <v>1192</v>
+        <v>1177</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -23942,10 +23621,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1193</v>
+        <v>1178</v>
       </c>
       <c r="F612" t="s">
-        <v>1194</v>
+        <v>1179</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -23971,10 +23650,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1195</v>
+        <v>1180</v>
       </c>
       <c r="F613" t="s">
-        <v>1196</v>
+        <v>1181</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -24000,10 +23679,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1197</v>
+        <v>1182</v>
       </c>
       <c r="F614" t="s">
-        <v>1198</v>
+        <v>1183</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -24029,10 +23708,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1199</v>
+        <v>1184</v>
       </c>
       <c r="F615" t="s">
-        <v>1200</v>
+        <v>1185</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -24058,10 +23737,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1201</v>
+        <v>1186</v>
       </c>
       <c r="F616" t="s">
-        <v>1202</v>
+        <v>596</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -24087,10 +23766,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1203</v>
+        <v>1187</v>
       </c>
       <c r="F617" t="s">
-        <v>1204</v>
+        <v>1188</v>
       </c>
       <c r="G617" t="n">
         <v>3</v>
@@ -24116,10 +23795,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
       <c r="F618" t="s">
-        <v>1206</v>
+        <v>1190</v>
       </c>
       <c r="G618" t="n">
         <v>2</v>
@@ -24145,10 +23824,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1207</v>
+        <v>1191</v>
       </c>
       <c r="F619" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
       <c r="G619" t="n">
         <v>6</v>
@@ -24174,10 +23853,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1209</v>
+        <v>1193</v>
       </c>
       <c r="F620" t="s">
-        <v>1210</v>
+        <v>604</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -24203,10 +23882,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1211</v>
+        <v>1194</v>
       </c>
       <c r="F621" t="s">
-        <v>1212</v>
+        <v>1195</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -24232,10 +23911,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1213</v>
+        <v>1196</v>
       </c>
       <c r="F622" t="s">
-        <v>1214</v>
+        <v>606</v>
       </c>
       <c r="G622" t="n">
         <v>2</v>
@@ -24261,10 +23940,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1215</v>
+        <v>1197</v>
       </c>
       <c r="F623" t="s">
-        <v>1216</v>
+        <v>1198</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -24290,10 +23969,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
       <c r="F624" t="s">
-        <v>1218</v>
+        <v>1200</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -24319,10 +23998,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1219</v>
+        <v>1201</v>
       </c>
       <c r="F625" t="s">
-        <v>1220</v>
+        <v>610</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -24348,10 +24027,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1221</v>
+        <v>1202</v>
       </c>
       <c r="F626" t="s">
-        <v>1222</v>
+        <v>1203</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -24377,10 +24056,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1223</v>
+        <v>1204</v>
       </c>
       <c r="F627" t="s">
-        <v>1224</v>
+        <v>1205</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -24406,10 +24085,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1225</v>
+        <v>1206</v>
       </c>
       <c r="F628" t="s">
-        <v>1226</v>
+        <v>1207</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -24435,10 +24114,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1227</v>
+        <v>1208</v>
       </c>
       <c r="F629" t="s">
-        <v>1228</v>
+        <v>1209</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -24464,10 +24143,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1229</v>
+        <v>1210</v>
       </c>
       <c r="F630" t="s">
-        <v>1230</v>
+        <v>1211</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -24493,10 +24172,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1231</v>
+        <v>1212</v>
       </c>
       <c r="F631" t="s">
-        <v>1232</v>
+        <v>1213</v>
       </c>
       <c r="G631" t="n">
         <v>2</v>
@@ -24522,10 +24201,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1233</v>
+        <v>1214</v>
       </c>
       <c r="F632" t="s">
-        <v>1234</v>
+        <v>1215</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -24551,10 +24230,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1235</v>
+        <v>1216</v>
       </c>
       <c r="F633" t="s">
-        <v>1236</v>
+        <v>1217</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -24580,10 +24259,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1237</v>
+        <v>1218</v>
       </c>
       <c r="F634" t="s">
-        <v>1238</v>
+        <v>666</v>
       </c>
       <c r="G634" t="n">
         <v>2</v>
@@ -24609,10 +24288,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1239</v>
+        <v>1219</v>
       </c>
       <c r="F635" t="s">
-        <v>1240</v>
+        <v>1220</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -24638,10 +24317,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1239</v>
+        <v>1219</v>
       </c>
       <c r="F636" t="s">
-        <v>1240</v>
+        <v>1220</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -24667,10 +24346,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1241</v>
+        <v>1221</v>
       </c>
       <c r="F637" t="s">
-        <v>1242</v>
+        <v>1222</v>
       </c>
       <c r="G637" t="n">
         <v>6</v>
@@ -24696,10 +24375,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1243</v>
+        <v>1223</v>
       </c>
       <c r="F638" t="s">
-        <v>1244</v>
+        <v>1224</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -24725,10 +24404,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1245</v>
+        <v>1225</v>
       </c>
       <c r="F639" t="s">
-        <v>1246</v>
+        <v>1226</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -24754,10 +24433,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1247</v>
+        <v>1227</v>
       </c>
       <c r="F640" t="s">
-        <v>1248</v>
+        <v>1228</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -24783,10 +24462,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="F641" t="s">
-        <v>1250</v>
+        <v>1230</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -24812,10 +24491,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1251</v>
+        <v>1231</v>
       </c>
       <c r="F642" t="s">
-        <v>1252</v>
+        <v>1232</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -24841,10 +24520,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1253</v>
+        <v>1233</v>
       </c>
       <c r="F643" t="s">
-        <v>1254</v>
+        <v>658</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -24870,10 +24549,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1255</v>
+        <v>1234</v>
       </c>
       <c r="F644" t="s">
-        <v>1256</v>
+        <v>1235</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -24899,10 +24578,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="F645" t="s">
-        <v>1258</v>
+        <v>1237</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -24928,10 +24607,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1259</v>
+        <v>1238</v>
       </c>
       <c r="F646" t="s">
-        <v>1260</v>
+        <v>630</v>
       </c>
       <c r="G646" t="n">
         <v>3</v>
@@ -24986,10 +24665,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1261</v>
+        <v>1239</v>
       </c>
       <c r="F648" t="s">
-        <v>1262</v>
+        <v>1240</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -25015,10 +24694,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1263</v>
+        <v>1241</v>
       </c>
       <c r="F649" t="s">
-        <v>1264</v>
+        <v>1242</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -25044,10 +24723,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1265</v>
+        <v>1243</v>
       </c>
       <c r="F650" t="s">
-        <v>1266</v>
+        <v>1244</v>
       </c>
       <c r="G650" t="n">
         <v>2</v>
@@ -25073,10 +24752,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1267</v>
+        <v>1245</v>
       </c>
       <c r="F651" t="s">
-        <v>1268</v>
+        <v>1246</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -25102,10 +24781,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1269</v>
+        <v>1247</v>
       </c>
       <c r="F652" t="s">
-        <v>1270</v>
+        <v>644</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -25131,10 +24810,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1271</v>
+        <v>1248</v>
       </c>
       <c r="F653" t="s">
-        <v>1272</v>
+        <v>1249</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -25160,10 +24839,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1273</v>
+        <v>1250</v>
       </c>
       <c r="F654" t="s">
-        <v>1274</v>
+        <v>1251</v>
       </c>
       <c r="G654" t="n">
         <v>2</v>
@@ -25189,10 +24868,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1275</v>
+        <v>1252</v>
       </c>
       <c r="F655" t="s">
-        <v>1276</v>
+        <v>1253</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -25218,10 +24897,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1277</v>
+        <v>1254</v>
       </c>
       <c r="F656" t="s">
-        <v>1278</v>
+        <v>1255</v>
       </c>
       <c r="G656" t="n">
         <v>7</v>
@@ -25247,10 +24926,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1279</v>
+        <v>1256</v>
       </c>
       <c r="F657" t="s">
-        <v>1280</v>
+        <v>648</v>
       </c>
       <c r="G657" t="n">
         <v>2</v>
@@ -25276,10 +24955,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1281</v>
+        <v>1257</v>
       </c>
       <c r="F658" t="s">
-        <v>1282</v>
+        <v>1258</v>
       </c>
       <c r="G658" t="n">
         <v>4</v>
@@ -25305,10 +24984,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1283</v>
+        <v>1259</v>
       </c>
       <c r="F659" t="s">
-        <v>1284</v>
+        <v>654</v>
       </c>
       <c r="G659" t="n">
         <v>2</v>
@@ -25334,10 +25013,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1285</v>
+        <v>1260</v>
       </c>
       <c r="F660" t="s">
-        <v>1286</v>
+        <v>1261</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -25363,10 +25042,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1287</v>
+        <v>1262</v>
       </c>
       <c r="F661" t="s">
-        <v>1288</v>
+        <v>1263</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -25392,10 +25071,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1289</v>
+        <v>1264</v>
       </c>
       <c r="F662" t="s">
-        <v>1290</v>
+        <v>218</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -25421,10 +25100,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1291</v>
+        <v>1265</v>
       </c>
       <c r="F663" t="s">
-        <v>1292</v>
+        <v>220</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -25450,10 +25129,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1293</v>
+        <v>1266</v>
       </c>
       <c r="F664" t="s">
-        <v>1294</v>
+        <v>1267</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -25479,10 +25158,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1295</v>
+        <v>1268</v>
       </c>
       <c r="F665" t="s">
-        <v>1296</v>
+        <v>652</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -25508,10 +25187,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1297</v>
+        <v>1269</v>
       </c>
       <c r="F666" t="s">
-        <v>1298</v>
+        <v>312</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -25537,10 +25216,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1299</v>
+        <v>1270</v>
       </c>
       <c r="F667" t="s">
-        <v>1300</v>
+        <v>334</v>
       </c>
       <c r="G667" t="n">
         <v>2</v>
@@ -25566,10 +25245,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1301</v>
+        <v>1271</v>
       </c>
       <c r="F668" t="s">
-        <v>1302</v>
+        <v>336</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -25595,10 +25274,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1303</v>
+        <v>1272</v>
       </c>
       <c r="F669" t="s">
-        <v>1304</v>
+        <v>1273</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -25624,10 +25303,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1305</v>
+        <v>1274</v>
       </c>
       <c r="F670" t="s">
-        <v>1306</v>
+        <v>338</v>
       </c>
       <c r="G670" t="n">
         <v>3</v>
@@ -25653,10 +25332,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1307</v>
+        <v>1275</v>
       </c>
       <c r="F671" t="s">
-        <v>1308</v>
+        <v>340</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -25682,10 +25361,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1309</v>
+        <v>1276</v>
       </c>
       <c r="F672" t="s">
-        <v>1310</v>
+        <v>1277</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -25711,10 +25390,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1311</v>
+        <v>1278</v>
       </c>
       <c r="F673" t="s">
-        <v>1312</v>
+        <v>1279</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -25769,10 +25448,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1313</v>
+        <v>1280</v>
       </c>
       <c r="F675" t="s">
-        <v>1314</v>
+        <v>1281</v>
       </c>
       <c r="G675" t="n">
         <v>4</v>
@@ -25798,10 +25477,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1315</v>
+        <v>1282</v>
       </c>
       <c r="F676" t="s">
-        <v>1316</v>
+        <v>1283</v>
       </c>
       <c r="G676" t="n">
         <v>2</v>
@@ -25856,10 +25535,10 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1317</v>
+        <v>1284</v>
       </c>
       <c r="F678" t="s">
-        <v>1318</v>
+        <v>342</v>
       </c>
       <c r="G678" t="n">
         <v>2</v>
@@ -25885,10 +25564,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1319</v>
+        <v>1285</v>
       </c>
       <c r="F679" t="s">
-        <v>1320</v>
+        <v>344</v>
       </c>
       <c r="G679" t="n">
         <v>1</v>
@@ -25914,10 +25593,10 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1321</v>
+        <v>1286</v>
       </c>
       <c r="F680" t="s">
-        <v>1322</v>
+        <v>1287</v>
       </c>
       <c r="G680" t="n">
         <v>1</v>
@@ -25943,10 +25622,10 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>1323</v>
+        <v>1288</v>
       </c>
       <c r="F681" t="s">
-        <v>1324</v>
+        <v>1289</v>
       </c>
       <c r="G681" t="n">
         <v>2</v>
@@ -25972,10 +25651,10 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1325</v>
+        <v>1290</v>
       </c>
       <c r="F682" t="s">
-        <v>1326</v>
+        <v>280</v>
       </c>
       <c r="G682" t="n">
         <v>1</v>
@@ -26001,10 +25680,10 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>1327</v>
+        <v>1291</v>
       </c>
       <c r="F683" t="s">
-        <v>1328</v>
+        <v>1292</v>
       </c>
       <c r="G683" t="n">
         <v>3</v>
@@ -26030,10 +25709,10 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>1329</v>
+        <v>1293</v>
       </c>
       <c r="F684" t="s">
-        <v>1330</v>
+        <v>276</v>
       </c>
       <c r="G684" t="n">
         <v>2</v>
@@ -26059,10 +25738,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1331</v>
+        <v>1294</v>
       </c>
       <c r="F685" t="s">
-        <v>1332</v>
+        <v>1295</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -26088,10 +25767,10 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1333</v>
+        <v>1296</v>
       </c>
       <c r="F686" t="s">
-        <v>1334</v>
+        <v>1297</v>
       </c>
       <c r="G686" t="n">
         <v>1</v>
@@ -26117,10 +25796,10 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1335</v>
+        <v>1298</v>
       </c>
       <c r="F687" t="s">
-        <v>1336</v>
+        <v>1299</v>
       </c>
       <c r="G687" t="n">
         <v>1</v>
@@ -26146,10 +25825,10 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1337</v>
+        <v>1300</v>
       </c>
       <c r="F688" t="s">
-        <v>1338</v>
+        <v>1301</v>
       </c>
       <c r="G688" t="n">
         <v>1</v>
@@ -26175,10 +25854,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1339</v>
+        <v>1302</v>
       </c>
       <c r="F689" t="s">
-        <v>1340</v>
+        <v>284</v>
       </c>
       <c r="G689" t="n">
         <v>1</v>
@@ -26204,10 +25883,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1341</v>
+        <v>1303</v>
       </c>
       <c r="F690" t="s">
-        <v>1342</v>
+        <v>1304</v>
       </c>
       <c r="G690" t="n">
         <v>1</v>
@@ -26233,10 +25912,10 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1343</v>
+        <v>1305</v>
       </c>
       <c r="F691" t="s">
-        <v>1344</v>
+        <v>1306</v>
       </c>
       <c r="G691" t="n">
         <v>1</v>
@@ -26262,10 +25941,10 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1345</v>
+        <v>1307</v>
       </c>
       <c r="F692" t="s">
-        <v>1346</v>
+        <v>1308</v>
       </c>
       <c r="G692" t="n">
         <v>2</v>
@@ -26291,10 +25970,10 @@
         <v>692</v>
       </c>
       <c r="E693" t="s">
-        <v>1347</v>
+        <v>1309</v>
       </c>
       <c r="F693" t="s">
-        <v>1348</v>
+        <v>1310</v>
       </c>
       <c r="G693" t="n">
         <v>1</v>
@@ -26320,10 +25999,10 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>1349</v>
+        <v>1311</v>
       </c>
       <c r="F694" t="s">
-        <v>1350</v>
+        <v>1312</v>
       </c>
       <c r="G694" t="n">
         <v>1</v>
@@ -26378,10 +26057,10 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1351</v>
+        <v>1313</v>
       </c>
       <c r="F696" t="s">
-        <v>1352</v>
+        <v>1314</v>
       </c>
       <c r="G696" t="n">
         <v>1</v>
@@ -26407,10 +26086,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1353</v>
+        <v>1315</v>
       </c>
       <c r="F697" t="s">
-        <v>1354</v>
+        <v>1316</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -26436,10 +26115,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1355</v>
+        <v>1317</v>
       </c>
       <c r="F698" t="s">
-        <v>1356</v>
+        <v>864</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -26465,10 +26144,10 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1357</v>
+        <v>1318</v>
       </c>
       <c r="F699" t="s">
-        <v>1358</v>
+        <v>1319</v>
       </c>
       <c r="G699" t="n">
         <v>1</v>
@@ -26494,10 +26173,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1359</v>
+        <v>1320</v>
       </c>
       <c r="F700" t="s">
-        <v>1360</v>
+        <v>1321</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -26523,10 +26202,10 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1361</v>
+        <v>1322</v>
       </c>
       <c r="F701" t="s">
-        <v>1362</v>
+        <v>1323</v>
       </c>
       <c r="G701" t="n">
         <v>2</v>
@@ -26552,10 +26231,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1363</v>
+        <v>1324</v>
       </c>
       <c r="F702" t="s">
-        <v>1364</v>
+        <v>1325</v>
       </c>
       <c r="G702" t="n">
         <v>2</v>
@@ -26581,10 +26260,10 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1365</v>
+        <v>1326</v>
       </c>
       <c r="F703" t="s">
-        <v>1366</v>
+        <v>1327</v>
       </c>
       <c r="G703" t="n">
         <v>3</v>
@@ -26610,10 +26289,10 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>1367</v>
+        <v>1328</v>
       </c>
       <c r="F704" t="s">
-        <v>1368</v>
+        <v>1329</v>
       </c>
       <c r="G704" t="n">
         <v>1</v>
@@ -26639,10 +26318,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1369</v>
+        <v>1330</v>
       </c>
       <c r="F705" t="s">
-        <v>1370</v>
+        <v>1331</v>
       </c>
       <c r="G705" t="n">
         <v>2</v>
@@ -26668,10 +26347,10 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1371</v>
+        <v>1332</v>
       </c>
       <c r="F706" t="s">
-        <v>1372</v>
+        <v>1333</v>
       </c>
       <c r="G706" t="n">
         <v>1</v>
@@ -26697,10 +26376,10 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1373</v>
+        <v>1334</v>
       </c>
       <c r="F707" t="s">
-        <v>1374</v>
+        <v>1335</v>
       </c>
       <c r="G707" t="n">
         <v>1</v>
@@ -26726,10 +26405,10 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1375</v>
+        <v>1336</v>
       </c>
       <c r="F708" t="s">
-        <v>1376</v>
+        <v>1337</v>
       </c>
       <c r="G708" t="n">
         <v>2</v>
@@ -26755,10 +26434,10 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1377</v>
+        <v>1338</v>
       </c>
       <c r="F709" t="s">
-        <v>1378</v>
+        <v>1339</v>
       </c>
       <c r="G709" t="n">
         <v>1</v>
@@ -26784,10 +26463,10 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1379</v>
+        <v>1340</v>
       </c>
       <c r="F710" t="s">
-        <v>1380</v>
+        <v>1341</v>
       </c>
       <c r="G710" t="n">
         <v>1</v>
@@ -26842,10 +26521,10 @@
         <v>711</v>
       </c>
       <c r="E712" t="s">
-        <v>1381</v>
+        <v>1342</v>
       </c>
       <c r="F712" t="s">
-        <v>1382</v>
+        <v>1343</v>
       </c>
       <c r="G712" t="n">
         <v>1</v>
@@ -26871,10 +26550,10 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>1383</v>
+        <v>1344</v>
       </c>
       <c r="F713" t="s">
-        <v>1384</v>
+        <v>1345</v>
       </c>
       <c r="G713" t="n">
         <v>1</v>
@@ -26900,10 +26579,10 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1385</v>
+        <v>1346</v>
       </c>
       <c r="F714" t="s">
-        <v>1386</v>
+        <v>682</v>
       </c>
       <c r="G714" t="n">
         <v>1</v>
@@ -26929,10 +26608,10 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1387</v>
+        <v>1347</v>
       </c>
       <c r="F715" t="s">
-        <v>1388</v>
+        <v>1348</v>
       </c>
       <c r="G715" t="n">
         <v>1</v>
@@ -26958,10 +26637,10 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1389</v>
+        <v>1349</v>
       </c>
       <c r="F716" t="s">
-        <v>1390</v>
+        <v>1350</v>
       </c>
       <c r="G716" t="n">
         <v>1</v>
@@ -26987,10 +26666,10 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1391</v>
+        <v>1351</v>
       </c>
       <c r="F717" t="s">
-        <v>1392</v>
+        <v>1352</v>
       </c>
       <c r="G717" t="n">
         <v>1</v>
@@ -27016,10 +26695,10 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>1393</v>
+        <v>1353</v>
       </c>
       <c r="F718" t="s">
-        <v>1394</v>
+        <v>1354</v>
       </c>
       <c r="G718" t="n">
         <v>1</v>
@@ -27045,10 +26724,10 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>1395</v>
+        <v>1355</v>
       </c>
       <c r="F719" t="s">
-        <v>1396</v>
+        <v>692</v>
       </c>
       <c r="G719" t="n">
         <v>1</v>
@@ -27074,10 +26753,10 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>1397</v>
+        <v>1356</v>
       </c>
       <c r="F720" t="s">
-        <v>1398</v>
+        <v>700</v>
       </c>
       <c r="G720" t="n">
         <v>3</v>
@@ -27103,10 +26782,10 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>1399</v>
+        <v>1357</v>
       </c>
       <c r="F721" t="s">
-        <v>1400</v>
+        <v>702</v>
       </c>
       <c r="G721" t="n">
         <v>1</v>
@@ -27132,10 +26811,10 @@
         <v>721</v>
       </c>
       <c r="E722" t="s">
-        <v>1401</v>
+        <v>1358</v>
       </c>
       <c r="F722" t="s">
-        <v>1402</v>
+        <v>1359</v>
       </c>
       <c r="G722" t="n">
         <v>2</v>
@@ -27161,10 +26840,10 @@
         <v>722</v>
       </c>
       <c r="E723" t="s">
-        <v>1403</v>
+        <v>1360</v>
       </c>
       <c r="F723" t="s">
-        <v>1404</v>
+        <v>1361</v>
       </c>
       <c r="G723" t="n">
         <v>1</v>
@@ -27190,10 +26869,10 @@
         <v>723</v>
       </c>
       <c r="E724" t="s">
-        <v>1405</v>
+        <v>1362</v>
       </c>
       <c r="F724" t="s">
-        <v>1406</v>
+        <v>1363</v>
       </c>
       <c r="G724" t="n">
         <v>5</v>
@@ -27219,10 +26898,10 @@
         <v>724</v>
       </c>
       <c r="E725" t="s">
-        <v>1407</v>
+        <v>1364</v>
       </c>
       <c r="F725" t="s">
-        <v>1408</v>
+        <v>1365</v>
       </c>
       <c r="G725" t="n">
         <v>1</v>
@@ -27248,10 +26927,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>1409</v>
+        <v>1366</v>
       </c>
       <c r="F726" t="s">
-        <v>1410</v>
+        <v>1367</v>
       </c>
       <c r="G726" t="n">
         <v>2</v>
@@ -27277,10 +26956,10 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>1411</v>
+        <v>1368</v>
       </c>
       <c r="F727" t="s">
-        <v>1412</v>
+        <v>1369</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -27306,10 +26985,10 @@
         <v>727</v>
       </c>
       <c r="E728" t="s">
-        <v>1413</v>
+        <v>1370</v>
       </c>
       <c r="F728" t="s">
-        <v>1414</v>
+        <v>1371</v>
       </c>
       <c r="G728" t="n">
         <v>1</v>
@@ -27335,10 +27014,10 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>1415</v>
+        <v>1372</v>
       </c>
       <c r="F729" t="s">
-        <v>1416</v>
+        <v>716</v>
       </c>
       <c r="G729" t="n">
         <v>2</v>
@@ -27364,10 +27043,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1417</v>
+        <v>1373</v>
       </c>
       <c r="F730" t="s">
-        <v>1418</v>
+        <v>1374</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -27393,10 +27072,10 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1419</v>
+        <v>1375</v>
       </c>
       <c r="F731" t="s">
-        <v>1420</v>
+        <v>1376</v>
       </c>
       <c r="G731" t="n">
         <v>1</v>
@@ -27422,10 +27101,10 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1421</v>
+        <v>1377</v>
       </c>
       <c r="F732" t="s">
-        <v>1422</v>
+        <v>1378</v>
       </c>
       <c r="G732" t="n">
         <v>1</v>
@@ -27451,10 +27130,10 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1423</v>
+        <v>1379</v>
       </c>
       <c r="F733" t="s">
-        <v>1424</v>
+        <v>722</v>
       </c>
       <c r="G733" t="n">
         <v>1</v>
@@ -27480,10 +27159,10 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>1425</v>
+        <v>1380</v>
       </c>
       <c r="F734" t="s">
-        <v>1426</v>
+        <v>1381</v>
       </c>
       <c r="G734" t="n">
         <v>1</v>
@@ -27509,10 +27188,10 @@
         <v>734</v>
       </c>
       <c r="E735" t="s">
-        <v>1427</v>
+        <v>1382</v>
       </c>
       <c r="F735" t="s">
-        <v>1428</v>
+        <v>530</v>
       </c>
       <c r="G735" t="n">
         <v>2</v>
@@ -27538,10 +27217,10 @@
         <v>735</v>
       </c>
       <c r="E736" t="s">
-        <v>1429</v>
+        <v>1383</v>
       </c>
       <c r="F736" t="s">
-        <v>1430</v>
+        <v>1384</v>
       </c>
       <c r="G736" t="n">
         <v>1</v>
@@ -27567,10 +27246,10 @@
         <v>736</v>
       </c>
       <c r="E737" t="s">
-        <v>1431</v>
+        <v>1385</v>
       </c>
       <c r="F737" t="s">
-        <v>1432</v>
+        <v>1386</v>
       </c>
       <c r="G737" t="n">
         <v>1</v>
@@ -27596,10 +27275,10 @@
         <v>737</v>
       </c>
       <c r="E738" t="s">
-        <v>1433</v>
+        <v>1387</v>
       </c>
       <c r="F738" t="s">
-        <v>1434</v>
+        <v>552</v>
       </c>
       <c r="G738" t="n">
         <v>1</v>
@@ -27625,10 +27304,10 @@
         <v>738</v>
       </c>
       <c r="E739" t="s">
-        <v>1435</v>
+        <v>1388</v>
       </c>
       <c r="F739" t="s">
-        <v>1436</v>
+        <v>1389</v>
       </c>
       <c r="G739" t="n">
         <v>1</v>
@@ -27654,10 +27333,10 @@
         <v>739</v>
       </c>
       <c r="E740" t="s">
-        <v>1437</v>
+        <v>1390</v>
       </c>
       <c r="F740" t="s">
-        <v>1438</v>
+        <v>1391</v>
       </c>
       <c r="G740" t="n">
         <v>1</v>
@@ -27683,10 +27362,10 @@
         <v>740</v>
       </c>
       <c r="E741" t="s">
-        <v>1439</v>
+        <v>1392</v>
       </c>
       <c r="F741" t="s">
-        <v>1440</v>
+        <v>1393</v>
       </c>
       <c r="G741" t="n">
         <v>1</v>
@@ -27712,10 +27391,10 @@
         <v>741</v>
       </c>
       <c r="E742" t="s">
-        <v>1441</v>
+        <v>1394</v>
       </c>
       <c r="F742" t="s">
-        <v>1442</v>
+        <v>544</v>
       </c>
       <c r="G742" t="n">
         <v>1</v>
@@ -27741,10 +27420,10 @@
         <v>742</v>
       </c>
       <c r="E743" t="s">
-        <v>1443</v>
+        <v>1395</v>
       </c>
       <c r="F743" t="s">
-        <v>1444</v>
+        <v>554</v>
       </c>
       <c r="G743" t="n">
         <v>1</v>
@@ -27770,10 +27449,10 @@
         <v>743</v>
       </c>
       <c r="E744" t="s">
-        <v>1445</v>
+        <v>1396</v>
       </c>
       <c r="F744" t="s">
-        <v>1446</v>
+        <v>548</v>
       </c>
       <c r="G744" t="n">
         <v>1</v>
@@ -27799,10 +27478,10 @@
         <v>744</v>
       </c>
       <c r="E745" t="s">
-        <v>1447</v>
+        <v>1397</v>
       </c>
       <c r="F745" t="s">
-        <v>1448</v>
+        <v>1398</v>
       </c>
       <c r="G745" t="n">
         <v>1</v>
@@ -27828,10 +27507,10 @@
         <v>745</v>
       </c>
       <c r="E746" t="s">
-        <v>1449</v>
+        <v>1399</v>
       </c>
       <c r="F746" t="s">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="G746" t="n">
         <v>1</v>
@@ -27857,10 +27536,10 @@
         <v>746</v>
       </c>
       <c r="E747" t="s">
-        <v>1451</v>
+        <v>1401</v>
       </c>
       <c r="F747" t="s">
-        <v>1452</v>
+        <v>1402</v>
       </c>
       <c r="G747" t="n">
         <v>1</v>
@@ -27886,10 +27565,10 @@
         <v>747</v>
       </c>
       <c r="E748" t="s">
-        <v>1453</v>
+        <v>1403</v>
       </c>
       <c r="F748" t="s">
-        <v>1454</v>
+        <v>1404</v>
       </c>
       <c r="G748" t="n">
         <v>1</v>
@@ -27944,10 +27623,10 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>1455</v>
+        <v>1405</v>
       </c>
       <c r="F750" t="s">
-        <v>1456</v>
+        <v>1406</v>
       </c>
       <c r="G750" t="n">
         <v>1</v>
@@ -27973,10 +27652,10 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>1457</v>
+        <v>1407</v>
       </c>
       <c r="F751" t="s">
-        <v>1458</v>
+        <v>566</v>
       </c>
       <c r="G751" t="n">
         <v>3</v>
@@ -28002,10 +27681,10 @@
         <v>751</v>
       </c>
       <c r="E752" t="s">
-        <v>1459</v>
+        <v>1408</v>
       </c>
       <c r="F752" t="s">
-        <v>1460</v>
+        <v>1409</v>
       </c>
       <c r="G752" t="n">
         <v>1</v>
@@ -28031,10 +27710,10 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>1461</v>
+        <v>1410</v>
       </c>
       <c r="F753" t="s">
-        <v>1462</v>
+        <v>1411</v>
       </c>
       <c r="G753" t="n">
         <v>1</v>
@@ -28060,10 +27739,10 @@
         <v>753</v>
       </c>
       <c r="E754" t="s">
-        <v>1463</v>
+        <v>1412</v>
       </c>
       <c r="F754" t="s">
-        <v>1464</v>
+        <v>1413</v>
       </c>
       <c r="G754" t="n">
         <v>2</v>
@@ -28089,10 +27768,10 @@
         <v>754</v>
       </c>
       <c r="E755" t="s">
-        <v>1465</v>
+        <v>1414</v>
       </c>
       <c r="F755" t="s">
-        <v>1466</v>
+        <v>1415</v>
       </c>
       <c r="G755" t="n">
         <v>1</v>
@@ -28118,10 +27797,10 @@
         <v>755</v>
       </c>
       <c r="E756" t="s">
-        <v>1467</v>
+        <v>1416</v>
       </c>
       <c r="F756" t="s">
-        <v>1468</v>
+        <v>1417</v>
       </c>
       <c r="G756" t="n">
         <v>1</v>
@@ -28147,10 +27826,10 @@
         <v>756</v>
       </c>
       <c r="E757" t="s">
-        <v>1469</v>
+        <v>1418</v>
       </c>
       <c r="F757" t="s">
-        <v>1470</v>
+        <v>572</v>
       </c>
       <c r="G757" t="n">
         <v>2</v>
@@ -28176,10 +27855,10 @@
         <v>757</v>
       </c>
       <c r="E758" t="s">
-        <v>1471</v>
+        <v>1419</v>
       </c>
       <c r="F758" t="s">
-        <v>1472</v>
+        <v>1237</v>
       </c>
       <c r="G758" t="n">
         <v>1</v>
@@ -28205,10 +27884,10 @@
         <v>758</v>
       </c>
       <c r="E759" t="s">
-        <v>1473</v>
+        <v>1420</v>
       </c>
       <c r="F759" t="s">
-        <v>1474</v>
+        <v>1421</v>
       </c>
       <c r="G759" t="n">
         <v>2</v>
@@ -28234,10 +27913,10 @@
         <v>759</v>
       </c>
       <c r="E760" t="s">
-        <v>1475</v>
+        <v>1422</v>
       </c>
       <c r="F760" t="s">
-        <v>1476</v>
+        <v>1423</v>
       </c>
       <c r="G760" t="n">
         <v>1</v>
@@ -28263,10 +27942,10 @@
         <v>760</v>
       </c>
       <c r="E761" t="s">
-        <v>1477</v>
+        <v>1424</v>
       </c>
       <c r="F761" t="s">
-        <v>1478</v>
+        <v>366</v>
       </c>
       <c r="G761" t="n">
         <v>1</v>
@@ -28292,10 +27971,10 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
-        <v>1479</v>
+        <v>1425</v>
       </c>
       <c r="F762" t="s">
-        <v>1480</v>
+        <v>1426</v>
       </c>
       <c r="G762" t="n">
         <v>1</v>
@@ -28321,10 +28000,10 @@
         <v>762</v>
       </c>
       <c r="E763" t="s">
-        <v>1481</v>
+        <v>1427</v>
       </c>
       <c r="F763" t="s">
-        <v>1482</v>
+        <v>376</v>
       </c>
       <c r="G763" t="n">
         <v>1</v>
@@ -28350,10 +28029,10 @@
         <v>763</v>
       </c>
       <c r="E764" t="s">
-        <v>1483</v>
+        <v>1428</v>
       </c>
       <c r="F764" t="s">
-        <v>1484</v>
+        <v>1429</v>
       </c>
       <c r="G764" t="n">
         <v>1</v>
@@ -28408,10 +28087,10 @@
         <v>765</v>
       </c>
       <c r="E766" t="s">
-        <v>1485</v>
+        <v>1430</v>
       </c>
       <c r="F766" t="s">
-        <v>1486</v>
+        <v>1431</v>
       </c>
       <c r="G766" t="n">
         <v>1</v>
@@ -28437,10 +28116,10 @@
         <v>766</v>
       </c>
       <c r="E767" t="s">
-        <v>1487</v>
+        <v>1432</v>
       </c>
       <c r="F767" t="s">
-        <v>1488</v>
+        <v>1433</v>
       </c>
       <c r="G767" t="n">
         <v>1</v>
@@ -28466,10 +28145,10 @@
         <v>767</v>
       </c>
       <c r="E768" t="s">
-        <v>1489</v>
+        <v>1434</v>
       </c>
       <c r="F768" t="s">
-        <v>1490</v>
+        <v>1435</v>
       </c>
       <c r="G768" t="n">
         <v>1</v>
@@ -28495,10 +28174,10 @@
         <v>768</v>
       </c>
       <c r="E769" t="s">
-        <v>1491</v>
+        <v>1436</v>
       </c>
       <c r="F769" t="s">
-        <v>1492</v>
+        <v>1437</v>
       </c>
       <c r="G769" t="n">
         <v>1</v>
@@ -28524,10 +28203,10 @@
         <v>769</v>
       </c>
       <c r="E770" t="s">
-        <v>1493</v>
+        <v>1438</v>
       </c>
       <c r="F770" t="s">
-        <v>1494</v>
+        <v>1439</v>
       </c>
       <c r="G770" t="n">
         <v>1</v>
@@ -28582,10 +28261,10 @@
         <v>771</v>
       </c>
       <c r="E772" t="s">
-        <v>1495</v>
+        <v>1440</v>
       </c>
       <c r="F772" t="s">
-        <v>1496</v>
+        <v>1441</v>
       </c>
       <c r="G772" t="n">
         <v>3</v>
@@ -28640,10 +28319,10 @@
         <v>773</v>
       </c>
       <c r="E774" t="s">
-        <v>1497</v>
+        <v>1442</v>
       </c>
       <c r="F774" t="s">
-        <v>1498</v>
+        <v>1443</v>
       </c>
       <c r="G774" t="n">
         <v>1</v>
@@ -28669,10 +28348,10 @@
         <v>774</v>
       </c>
       <c r="E775" t="s">
-        <v>1499</v>
+        <v>1444</v>
       </c>
       <c r="F775" t="s">
-        <v>1500</v>
+        <v>1445</v>
       </c>
       <c r="G775" t="n">
         <v>2</v>
@@ -28698,10 +28377,10 @@
         <v>775</v>
       </c>
       <c r="E776" t="s">
-        <v>1501</v>
+        <v>1446</v>
       </c>
       <c r="F776" t="s">
-        <v>1502</v>
+        <v>1447</v>
       </c>
       <c r="G776" t="n">
         <v>1</v>
@@ -28727,10 +28406,10 @@
         <v>776</v>
       </c>
       <c r="E777" t="s">
-        <v>1503</v>
+        <v>1448</v>
       </c>
       <c r="F777" t="s">
-        <v>1504</v>
+        <v>1449</v>
       </c>
       <c r="G777" t="n">
         <v>1</v>
@@ -28756,10 +28435,10 @@
         <v>777</v>
       </c>
       <c r="E778" t="s">
-        <v>1505</v>
+        <v>1450</v>
       </c>
       <c r="F778" t="s">
-        <v>1506</v>
+        <v>1451</v>
       </c>
       <c r="G778" t="n">
         <v>1</v>
@@ -28785,10 +28464,10 @@
         <v>778</v>
       </c>
       <c r="E779" t="s">
-        <v>1507</v>
+        <v>1452</v>
       </c>
       <c r="F779" t="s">
-        <v>1508</v>
+        <v>1082</v>
       </c>
       <c r="G779" t="n">
         <v>2</v>
@@ -28814,10 +28493,10 @@
         <v>779</v>
       </c>
       <c r="E780" t="s">
-        <v>1509</v>
+        <v>1453</v>
       </c>
       <c r="F780" t="s">
-        <v>1510</v>
+        <v>1454</v>
       </c>
       <c r="G780" t="n">
         <v>2</v>
@@ -28843,10 +28522,10 @@
         <v>780</v>
       </c>
       <c r="E781" t="s">
-        <v>1511</v>
+        <v>1455</v>
       </c>
       <c r="F781" t="s">
-        <v>1512</v>
+        <v>1456</v>
       </c>
       <c r="G781" t="n">
         <v>1</v>
@@ -28872,10 +28551,10 @@
         <v>781</v>
       </c>
       <c r="E782" t="s">
-        <v>1513</v>
+        <v>1457</v>
       </c>
       <c r="F782" t="s">
-        <v>1514</v>
+        <v>1458</v>
       </c>
       <c r="G782" t="n">
         <v>1</v>
@@ -28901,10 +28580,10 @@
         <v>782</v>
       </c>
       <c r="E783" t="s">
-        <v>1515</v>
+        <v>1459</v>
       </c>
       <c r="F783" t="s">
-        <v>1516</v>
+        <v>482</v>
       </c>
       <c r="G783" t="n">
         <v>1</v>
@@ -28930,10 +28609,10 @@
         <v>783</v>
       </c>
       <c r="E784" t="s">
-        <v>1517</v>
+        <v>1460</v>
       </c>
       <c r="F784" t="s">
-        <v>1518</v>
+        <v>1461</v>
       </c>
       <c r="G784" t="n">
         <v>1</v>
@@ -28959,10 +28638,10 @@
         <v>784</v>
       </c>
       <c r="E785" t="s">
-        <v>1519</v>
+        <v>1462</v>
       </c>
       <c r="F785" t="s">
-        <v>1520</v>
+        <v>1463</v>
       </c>
       <c r="G785" t="n">
         <v>2</v>
@@ -28988,10 +28667,10 @@
         <v>785</v>
       </c>
       <c r="E786" t="s">
-        <v>1521</v>
+        <v>1464</v>
       </c>
       <c r="F786" t="s">
-        <v>1522</v>
+        <v>1465</v>
       </c>
       <c r="G786" t="n">
         <v>1</v>
@@ -29017,10 +28696,10 @@
         <v>786</v>
       </c>
       <c r="E787" t="s">
-        <v>1523</v>
+        <v>1466</v>
       </c>
       <c r="F787" t="s">
-        <v>1524</v>
+        <v>1467</v>
       </c>
       <c r="G787" t="n">
         <v>1</v>
@@ -29046,10 +28725,10 @@
         <v>787</v>
       </c>
       <c r="E788" t="s">
-        <v>1525</v>
+        <v>1468</v>
       </c>
       <c r="F788" t="s">
-        <v>1526</v>
+        <v>1469</v>
       </c>
       <c r="G788" t="n">
         <v>1</v>
@@ -29075,10 +28754,10 @@
         <v>788</v>
       </c>
       <c r="E789" t="s">
-        <v>1527</v>
+        <v>1470</v>
       </c>
       <c r="F789" t="s">
-        <v>1528</v>
+        <v>1471</v>
       </c>
       <c r="G789" t="n">
         <v>1</v>
@@ -29104,10 +28783,10 @@
         <v>789</v>
       </c>
       <c r="E790" t="s">
-        <v>1529</v>
+        <v>1472</v>
       </c>
       <c r="F790" t="s">
-        <v>1530</v>
+        <v>1473</v>
       </c>
       <c r="G790" t="n">
         <v>1</v>
@@ -29133,10 +28812,10 @@
         <v>790</v>
       </c>
       <c r="E791" t="s">
-        <v>1531</v>
+        <v>1474</v>
       </c>
       <c r="F791" t="s">
-        <v>1532</v>
+        <v>1475</v>
       </c>
       <c r="G791" t="n">
         <v>2</v>
@@ -29162,10 +28841,10 @@
         <v>791</v>
       </c>
       <c r="E792" t="s">
-        <v>1533</v>
+        <v>1476</v>
       </c>
       <c r="F792" t="s">
-        <v>1534</v>
+        <v>408</v>
       </c>
       <c r="G792" t="n">
         <v>1</v>
@@ -29191,10 +28870,10 @@
         <v>792</v>
       </c>
       <c r="E793" t="s">
-        <v>1535</v>
+        <v>1477</v>
       </c>
       <c r="F793" t="s">
-        <v>1536</v>
+        <v>1478</v>
       </c>
       <c r="G793" t="n">
         <v>1</v>
@@ -29220,10 +28899,10 @@
         <v>793</v>
       </c>
       <c r="E794" t="s">
-        <v>1537</v>
+        <v>1479</v>
       </c>
       <c r="F794" t="s">
-        <v>1538</v>
+        <v>1480</v>
       </c>
       <c r="G794" t="n">
         <v>2</v>
@@ -29249,10 +28928,10 @@
         <v>794</v>
       </c>
       <c r="E795" t="s">
-        <v>1539</v>
+        <v>1481</v>
       </c>
       <c r="F795" t="s">
-        <v>1540</v>
+        <v>420</v>
       </c>
       <c r="G795" t="n">
         <v>7</v>
@@ -29278,10 +28957,10 @@
         <v>795</v>
       </c>
       <c r="E796" t="s">
-        <v>1167</v>
+        <v>1154</v>
       </c>
       <c r="F796" t="s">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="G796" t="n">
         <v>1</v>
@@ -29307,10 +28986,10 @@
         <v>796</v>
       </c>
       <c r="E797" t="s">
-        <v>1541</v>
+        <v>1482</v>
       </c>
       <c r="F797" t="s">
-        <v>1542</v>
+        <v>1483</v>
       </c>
       <c r="G797" t="n">
         <v>1</v>
@@ -29336,10 +29015,10 @@
         <v>797</v>
       </c>
       <c r="E798" t="s">
-        <v>1543</v>
+        <v>1484</v>
       </c>
       <c r="F798" t="s">
-        <v>1544</v>
+        <v>1485</v>
       </c>
       <c r="G798" t="n">
         <v>1</v>
@@ -29365,10 +29044,10 @@
         <v>798</v>
       </c>
       <c r="E799" t="s">
-        <v>1545</v>
+        <v>1486</v>
       </c>
       <c r="F799" t="s">
-        <v>1546</v>
+        <v>1485</v>
       </c>
       <c r="G799" t="n">
         <v>1</v>
@@ -29394,10 +29073,10 @@
         <v>799</v>
       </c>
       <c r="E800" t="s">
-        <v>1547</v>
+        <v>1487</v>
       </c>
       <c r="F800" t="s">
-        <v>1548</v>
+        <v>1488</v>
       </c>
       <c r="G800" t="n">
         <v>1</v>
@@ -29423,10 +29102,10 @@
         <v>800</v>
       </c>
       <c r="E801" t="s">
-        <v>1549</v>
+        <v>1489</v>
       </c>
       <c r="F801" t="s">
-        <v>1550</v>
+        <v>1490</v>
       </c>
       <c r="G801" t="n">
         <v>1</v>
@@ -29452,10 +29131,10 @@
         <v>801</v>
       </c>
       <c r="E802" t="s">
-        <v>1551</v>
+        <v>1491</v>
       </c>
       <c r="F802" t="s">
-        <v>1552</v>
+        <v>1492</v>
       </c>
       <c r="G802" t="n">
         <v>2</v>
@@ -29481,10 +29160,10 @@
         <v>802</v>
       </c>
       <c r="E803" t="s">
-        <v>1553</v>
+        <v>1493</v>
       </c>
       <c r="F803" t="s">
-        <v>1554</v>
+        <v>1494</v>
       </c>
       <c r="G803" t="n">
         <v>2</v>
@@ -29510,10 +29189,10 @@
         <v>803</v>
       </c>
       <c r="E804" t="s">
-        <v>1555</v>
+        <v>1495</v>
       </c>
       <c r="F804" t="s">
-        <v>1556</v>
+        <v>1496</v>
       </c>
       <c r="G804" t="n">
         <v>1</v>
@@ -29539,10 +29218,10 @@
         <v>804</v>
       </c>
       <c r="E805" t="s">
-        <v>1557</v>
+        <v>1497</v>
       </c>
       <c r="F805" t="s">
-        <v>1558</v>
+        <v>1498</v>
       </c>
       <c r="G805" t="n">
         <v>2</v>
@@ -29568,10 +29247,10 @@
         <v>805</v>
       </c>
       <c r="E806" t="s">
-        <v>1559</v>
+        <v>1499</v>
       </c>
       <c r="F806" t="s">
-        <v>1560</v>
+        <v>1500</v>
       </c>
       <c r="G806" t="n">
         <v>1</v>
@@ -29597,10 +29276,10 @@
         <v>806</v>
       </c>
       <c r="E807" t="s">
-        <v>1561</v>
+        <v>1501</v>
       </c>
       <c r="F807" t="s">
-        <v>1562</v>
+        <v>1502</v>
       </c>
       <c r="G807" t="n">
         <v>1</v>
@@ -29626,10 +29305,10 @@
         <v>807</v>
       </c>
       <c r="E808" t="s">
-        <v>1563</v>
+        <v>1503</v>
       </c>
       <c r="F808" t="s">
-        <v>1564</v>
+        <v>450</v>
       </c>
       <c r="G808" t="n">
         <v>3</v>
@@ -29655,10 +29334,10 @@
         <v>808</v>
       </c>
       <c r="E809" t="s">
-        <v>1565</v>
+        <v>1504</v>
       </c>
       <c r="F809" t="s">
-        <v>1566</v>
+        <v>1505</v>
       </c>
       <c r="G809" t="n">
         <v>1</v>
@@ -29684,10 +29363,10 @@
         <v>809</v>
       </c>
       <c r="E810" t="s">
-        <v>1567</v>
+        <v>1506</v>
       </c>
       <c r="F810" t="s">
-        <v>1568</v>
+        <v>1507</v>
       </c>
       <c r="G810" t="n">
         <v>1</v>
@@ -29713,10 +29392,10 @@
         <v>810</v>
       </c>
       <c r="E811" t="s">
-        <v>1569</v>
+        <v>1508</v>
       </c>
       <c r="F811" t="s">
-        <v>1570</v>
+        <v>1509</v>
       </c>
       <c r="G811" t="n">
         <v>1</v>
@@ -29742,10 +29421,10 @@
         <v>811</v>
       </c>
       <c r="E812" t="s">
-        <v>1571</v>
+        <v>1510</v>
       </c>
       <c r="F812" t="s">
-        <v>1572</v>
+        <v>1511</v>
       </c>
       <c r="G812" t="n">
         <v>1</v>
@@ -29800,10 +29479,10 @@
         <v>813</v>
       </c>
       <c r="E814" t="s">
-        <v>1573</v>
+        <v>1512</v>
       </c>
       <c r="F814" t="s">
-        <v>1574</v>
+        <v>1513</v>
       </c>
       <c r="G814" t="n">
         <v>1</v>
@@ -29829,10 +29508,10 @@
         <v>814</v>
       </c>
       <c r="E815" t="s">
-        <v>1575</v>
+        <v>1514</v>
       </c>
       <c r="F815" t="s">
-        <v>1576</v>
+        <v>1515</v>
       </c>
       <c r="G815" t="n">
         <v>1</v>
@@ -29858,10 +29537,10 @@
         <v>815</v>
       </c>
       <c r="E816" t="s">
-        <v>1577</v>
+        <v>1516</v>
       </c>
       <c r="F816" t="s">
-        <v>1578</v>
+        <v>1517</v>
       </c>
       <c r="G816" t="n">
         <v>1</v>
@@ -29887,10 +29566,10 @@
         <v>816</v>
       </c>
       <c r="E817" t="s">
-        <v>1579</v>
+        <v>1518</v>
       </c>
       <c r="F817" t="s">
-        <v>1580</v>
+        <v>460</v>
       </c>
       <c r="G817" t="n">
         <v>1</v>
@@ -29916,10 +29595,10 @@
         <v>817</v>
       </c>
       <c r="E818" t="s">
-        <v>1581</v>
+        <v>1519</v>
       </c>
       <c r="F818" t="s">
-        <v>1582</v>
+        <v>1520</v>
       </c>
       <c r="G818" t="n">
         <v>1</v>
@@ -29945,10 +29624,10 @@
         <v>818</v>
       </c>
       <c r="E819" t="s">
-        <v>1583</v>
+        <v>1521</v>
       </c>
       <c r="F819" t="s">
-        <v>1584</v>
+        <v>1522</v>
       </c>
       <c r="G819" t="n">
         <v>1</v>
@@ -29974,10 +29653,10 @@
         <v>819</v>
       </c>
       <c r="E820" t="s">
-        <v>1585</v>
+        <v>1523</v>
       </c>
       <c r="F820" t="s">
-        <v>1586</v>
+        <v>472</v>
       </c>
       <c r="G820" t="n">
         <v>1</v>
@@ -30003,10 +29682,10 @@
         <v>820</v>
       </c>
       <c r="E821" t="s">
-        <v>1587</v>
+        <v>1524</v>
       </c>
       <c r="F821" t="s">
-        <v>1588</v>
+        <v>1525</v>
       </c>
       <c r="G821" t="n">
         <v>1</v>
@@ -30032,10 +29711,10 @@
         <v>821</v>
       </c>
       <c r="E822" t="s">
-        <v>1589</v>
+        <v>1526</v>
       </c>
       <c r="F822" t="s">
-        <v>1590</v>
+        <v>1527</v>
       </c>
       <c r="G822" t="n">
         <v>2</v>
@@ -30061,10 +29740,10 @@
         <v>822</v>
       </c>
       <c r="E823" t="s">
-        <v>1591</v>
+        <v>1528</v>
       </c>
       <c r="F823" t="s">
-        <v>1592</v>
+        <v>1529</v>
       </c>
       <c r="G823" t="n">
         <v>1</v>
@@ -30090,10 +29769,10 @@
         <v>823</v>
       </c>
       <c r="E824" t="s">
-        <v>1593</v>
+        <v>1530</v>
       </c>
       <c r="F824" t="s">
-        <v>1594</v>
+        <v>1531</v>
       </c>
       <c r="G824" t="n">
         <v>1</v>
@@ -30119,10 +29798,10 @@
         <v>824</v>
       </c>
       <c r="E825" t="s">
-        <v>1595</v>
+        <v>1532</v>
       </c>
       <c r="F825" t="s">
-        <v>1596</v>
+        <v>1533</v>
       </c>
       <c r="G825" t="n">
         <v>1</v>
@@ -30148,10 +29827,10 @@
         <v>825</v>
       </c>
       <c r="E826" t="s">
-        <v>1597</v>
+        <v>1534</v>
       </c>
       <c r="F826" t="s">
-        <v>1598</v>
+        <v>942</v>
       </c>
       <c r="G826" t="n">
         <v>1</v>
@@ -30177,10 +29856,10 @@
         <v>826</v>
       </c>
       <c r="E827" t="s">
-        <v>1599</v>
+        <v>1535</v>
       </c>
       <c r="F827" t="s">
-        <v>1600</v>
+        <v>1536</v>
       </c>
       <c r="G827" t="n">
         <v>1</v>
@@ -30206,10 +29885,10 @@
         <v>827</v>
       </c>
       <c r="E828" t="s">
-        <v>1601</v>
+        <v>1537</v>
       </c>
       <c r="F828" t="s">
-        <v>1602</v>
+        <v>1538</v>
       </c>
       <c r="G828" t="n">
         <v>1</v>
@@ -30235,10 +29914,10 @@
         <v>828</v>
       </c>
       <c r="E829" t="s">
-        <v>1603</v>
+        <v>1539</v>
       </c>
       <c r="F829" t="s">
-        <v>1604</v>
+        <v>1540</v>
       </c>
       <c r="G829" t="n">
         <v>1</v>
@@ -30264,10 +29943,10 @@
         <v>829</v>
       </c>
       <c r="E830" t="s">
-        <v>1605</v>
+        <v>1541</v>
       </c>
       <c r="F830" t="s">
-        <v>1606</v>
+        <v>948</v>
       </c>
       <c r="G830" t="n">
         <v>3</v>
@@ -30293,10 +29972,10 @@
         <v>830</v>
       </c>
       <c r="E831" t="s">
-        <v>1607</v>
+        <v>1542</v>
       </c>
       <c r="F831" t="s">
-        <v>1608</v>
+        <v>1543</v>
       </c>
       <c r="G831" t="n">
         <v>1</v>
@@ -30322,10 +30001,10 @@
         <v>831</v>
       </c>
       <c r="E832" t="s">
-        <v>1609</v>
+        <v>1544</v>
       </c>
       <c r="F832" t="s">
-        <v>1610</v>
+        <v>1545</v>
       </c>
       <c r="G832" t="n">
         <v>1</v>
@@ -30351,10 +30030,10 @@
         <v>832</v>
       </c>
       <c r="E833" t="s">
-        <v>1611</v>
+        <v>1546</v>
       </c>
       <c r="F833" t="s">
-        <v>1612</v>
+        <v>1547</v>
       </c>
       <c r="G833" t="n">
         <v>1</v>
@@ -30380,10 +30059,10 @@
         <v>833</v>
       </c>
       <c r="E834" t="s">
-        <v>1613</v>
+        <v>1548</v>
       </c>
       <c r="F834" t="s">
-        <v>1614</v>
+        <v>1549</v>
       </c>
       <c r="G834" t="n">
         <v>1</v>
@@ -30409,10 +30088,10 @@
         <v>834</v>
       </c>
       <c r="E835" t="s">
-        <v>1615</v>
+        <v>1550</v>
       </c>
       <c r="F835" t="s">
-        <v>1616</v>
+        <v>1551</v>
       </c>
       <c r="G835" t="n">
         <v>3</v>
@@ -30438,10 +30117,10 @@
         <v>835</v>
       </c>
       <c r="E836" t="s">
-        <v>1617</v>
+        <v>1552</v>
       </c>
       <c r="F836" t="s">
-        <v>1618</v>
+        <v>1553</v>
       </c>
       <c r="G836" t="n">
         <v>1</v>
@@ -30467,10 +30146,10 @@
         <v>836</v>
       </c>
       <c r="E837" t="s">
-        <v>1619</v>
+        <v>1554</v>
       </c>
       <c r="F837" t="s">
-        <v>1620</v>
+        <v>1555</v>
       </c>
       <c r="G837" t="n">
         <v>2</v>
@@ -30496,10 +30175,10 @@
         <v>837</v>
       </c>
       <c r="E838" t="s">
-        <v>1621</v>
+        <v>1556</v>
       </c>
       <c r="F838" t="s">
-        <v>1622</v>
+        <v>1557</v>
       </c>
       <c r="G838" t="n">
         <v>2</v>
@@ -30525,10 +30204,10 @@
         <v>838</v>
       </c>
       <c r="E839" t="s">
-        <v>1623</v>
+        <v>1558</v>
       </c>
       <c r="F839" t="s">
-        <v>1624</v>
+        <v>966</v>
       </c>
       <c r="G839" t="n">
         <v>1</v>
@@ -30554,10 +30233,10 @@
         <v>839</v>
       </c>
       <c r="E840" t="s">
-        <v>1625</v>
+        <v>1559</v>
       </c>
       <c r="F840" t="s">
-        <v>1626</v>
+        <v>968</v>
       </c>
       <c r="G840" t="n">
         <v>1</v>
@@ -30583,10 +30262,10 @@
         <v>840</v>
       </c>
       <c r="E841" t="s">
-        <v>1627</v>
+        <v>1560</v>
       </c>
       <c r="F841" t="s">
-        <v>1628</v>
+        <v>964</v>
       </c>
       <c r="G841" t="n">
         <v>1</v>
@@ -30612,10 +30291,10 @@
         <v>841</v>
       </c>
       <c r="E842" t="s">
-        <v>1629</v>
+        <v>1561</v>
       </c>
       <c r="F842" t="s">
-        <v>1630</v>
+        <v>1562</v>
       </c>
       <c r="G842" t="n">
         <v>1</v>
@@ -30670,10 +30349,10 @@
         <v>843</v>
       </c>
       <c r="E844" t="s">
-        <v>1631</v>
+        <v>1563</v>
       </c>
       <c r="F844" t="s">
-        <v>1632</v>
+        <v>1564</v>
       </c>
       <c r="G844" t="n">
         <v>1</v>
@@ -30699,10 +30378,10 @@
         <v>844</v>
       </c>
       <c r="E845" t="s">
-        <v>1633</v>
+        <v>1565</v>
       </c>
       <c r="F845" t="s">
-        <v>1634</v>
+        <v>1566</v>
       </c>
       <c r="G845" t="n">
         <v>1</v>
@@ -30728,10 +30407,10 @@
         <v>845</v>
       </c>
       <c r="E846" t="s">
-        <v>1635</v>
+        <v>1567</v>
       </c>
       <c r="F846" t="s">
-        <v>1636</v>
+        <v>1568</v>
       </c>
       <c r="G846" t="n">
         <v>1</v>
@@ -30757,10 +30436,10 @@
         <v>846</v>
       </c>
       <c r="E847" t="s">
-        <v>1637</v>
+        <v>1569</v>
       </c>
       <c r="F847" t="s">
-        <v>1638</v>
+        <v>1570</v>
       </c>
       <c r="G847" t="n">
         <v>31</v>
@@ -30786,10 +30465,10 @@
         <v>847</v>
       </c>
       <c r="E848" t="s">
-        <v>1639</v>
+        <v>1571</v>
       </c>
       <c r="F848" t="s">
-        <v>1640</v>
+        <v>1046</v>
       </c>
       <c r="G848" t="n">
         <v>1</v>
@@ -30815,10 +30494,10 @@
         <v>848</v>
       </c>
       <c r="E849" t="s">
-        <v>1641</v>
+        <v>1572</v>
       </c>
       <c r="F849" t="s">
-        <v>1642</v>
+        <v>272</v>
       </c>
       <c r="G849" t="n">
         <v>1</v>
@@ -30844,10 +30523,10 @@
         <v>849</v>
       </c>
       <c r="E850" t="s">
-        <v>1643</v>
+        <v>1573</v>
       </c>
       <c r="F850" t="s">
-        <v>1644</v>
+        <v>1574</v>
       </c>
       <c r="G850" t="n">
         <v>1</v>
@@ -30873,10 +30552,10 @@
         <v>850</v>
       </c>
       <c r="E851" t="s">
-        <v>1645</v>
+        <v>1575</v>
       </c>
       <c r="F851" t="s">
-        <v>1646</v>
+        <v>1576</v>
       </c>
       <c r="G851" t="n">
         <v>1</v>
@@ -30902,10 +30581,10 @@
         <v>851</v>
       </c>
       <c r="E852" t="s">
-        <v>1647</v>
+        <v>1577</v>
       </c>
       <c r="F852" t="s">
-        <v>1648</v>
+        <v>1578</v>
       </c>
       <c r="G852" t="n">
         <v>1</v>
@@ -30960,10 +30639,10 @@
         <v>853</v>
       </c>
       <c r="E854" t="s">
-        <v>1649</v>
+        <v>1579</v>
       </c>
       <c r="F854" t="s">
-        <v>1650</v>
+        <v>1580</v>
       </c>
       <c r="G854" t="n">
         <v>1</v>
@@ -30989,10 +30668,10 @@
         <v>854</v>
       </c>
       <c r="E855" t="s">
-        <v>1651</v>
+        <v>1581</v>
       </c>
       <c r="F855" t="s">
-        <v>1652</v>
+        <v>1582</v>
       </c>
       <c r="G855" t="n">
         <v>1</v>
@@ -31047,10 +30726,10 @@
         <v>856</v>
       </c>
       <c r="E857" t="s">
-        <v>1653</v>
+        <v>1583</v>
       </c>
       <c r="F857" t="s">
-        <v>1654</v>
+        <v>1584</v>
       </c>
       <c r="G857" t="n">
         <v>1</v>
@@ -31076,10 +30755,10 @@
         <v>857</v>
       </c>
       <c r="E858" t="s">
-        <v>1655</v>
+        <v>1585</v>
       </c>
       <c r="F858" t="s">
-        <v>1656</v>
+        <v>1586</v>
       </c>
       <c r="G858" t="n">
         <v>1</v>
@@ -31105,10 +30784,10 @@
         <v>858</v>
       </c>
       <c r="E859" t="s">
-        <v>1657</v>
+        <v>1587</v>
       </c>
       <c r="F859" t="s">
-        <v>1658</v>
+        <v>1588</v>
       </c>
       <c r="G859" t="n">
         <v>1</v>
@@ -31134,10 +30813,10 @@
         <v>859</v>
       </c>
       <c r="E860" t="s">
-        <v>1659</v>
+        <v>1589</v>
       </c>
       <c r="F860" t="s">
-        <v>1660</v>
+        <v>1590</v>
       </c>
       <c r="G860" t="n">
         <v>1</v>
@@ -31163,10 +30842,10 @@
         <v>860</v>
       </c>
       <c r="E861" t="s">
-        <v>1661</v>
+        <v>1591</v>
       </c>
       <c r="F861" t="s">
-        <v>1662</v>
+        <v>1592</v>
       </c>
       <c r="G861" t="n">
         <v>6</v>
@@ -31192,10 +30871,10 @@
         <v>861</v>
       </c>
       <c r="E862" t="s">
-        <v>1663</v>
+        <v>1593</v>
       </c>
       <c r="F862" t="s">
-        <v>1664</v>
+        <v>1594</v>
       </c>
       <c r="G862" t="n">
         <v>1</v>
@@ -31221,10 +30900,10 @@
         <v>862</v>
       </c>
       <c r="E863" t="s">
-        <v>1665</v>
+        <v>1595</v>
       </c>
       <c r="F863" t="s">
-        <v>1666</v>
+        <v>1596</v>
       </c>
       <c r="G863" t="n">
         <v>1</v>
@@ -31250,10 +30929,10 @@
         <v>863</v>
       </c>
       <c r="E864" t="s">
-        <v>1667</v>
+        <v>1597</v>
       </c>
       <c r="F864" t="s">
-        <v>1668</v>
+        <v>1598</v>
       </c>
       <c r="G864" t="n">
         <v>2</v>
@@ -31279,10 +30958,10 @@
         <v>864</v>
       </c>
       <c r="E865" t="s">
-        <v>1669</v>
+        <v>1599</v>
       </c>
       <c r="F865" t="s">
-        <v>1670</v>
+        <v>1600</v>
       </c>
       <c r="G865" t="n">
         <v>1</v>
@@ -31337,10 +31016,10 @@
         <v>866</v>
       </c>
       <c r="E867" t="s">
-        <v>1671</v>
+        <v>1601</v>
       </c>
       <c r="F867" t="s">
-        <v>1672</v>
+        <v>1602</v>
       </c>
       <c r="G867" t="n">
         <v>1</v>
@@ -31366,10 +31045,10 @@
         <v>867</v>
       </c>
       <c r="E868" t="s">
-        <v>1673</v>
+        <v>1603</v>
       </c>
       <c r="F868" t="s">
-        <v>1674</v>
+        <v>1604</v>
       </c>
       <c r="G868" t="n">
         <v>1</v>
@@ -31395,10 +31074,10 @@
         <v>868</v>
       </c>
       <c r="E869" t="s">
-        <v>1675</v>
+        <v>1605</v>
       </c>
       <c r="F869" t="s">
-        <v>1676</v>
+        <v>1606</v>
       </c>
       <c r="G869" t="n">
         <v>1</v>
@@ -31424,10 +31103,10 @@
         <v>869</v>
       </c>
       <c r="E870" t="s">
-        <v>1677</v>
+        <v>1607</v>
       </c>
       <c r="F870" t="s">
-        <v>1678</v>
+        <v>1608</v>
       </c>
       <c r="G870" t="n">
         <v>1</v>
@@ -31453,10 +31132,10 @@
         <v>870</v>
       </c>
       <c r="E871" t="s">
-        <v>1679</v>
+        <v>1609</v>
       </c>
       <c r="F871" t="s">
-        <v>1680</v>
+        <v>1610</v>
       </c>
       <c r="G871" t="n">
         <v>1</v>
@@ -31482,10 +31161,10 @@
         <v>871</v>
       </c>
       <c r="E872" t="s">
-        <v>1681</v>
+        <v>1611</v>
       </c>
       <c r="F872" t="s">
-        <v>1682</v>
+        <v>1612</v>
       </c>
       <c r="G872" t="n">
         <v>1</v>
@@ -31511,10 +31190,10 @@
         <v>872</v>
       </c>
       <c r="E873" t="s">
-        <v>1683</v>
+        <v>1613</v>
       </c>
       <c r="F873" t="s">
-        <v>1684</v>
+        <v>746</v>
       </c>
       <c r="G873" t="n">
         <v>1</v>
@@ -31540,10 +31219,10 @@
         <v>873</v>
       </c>
       <c r="E874" t="s">
-        <v>1685</v>
+        <v>1614</v>
       </c>
       <c r="F874" t="s">
-        <v>1686</v>
+        <v>1615</v>
       </c>
       <c r="G874" t="n">
         <v>3</v>
@@ -31569,10 +31248,10 @@
         <v>874</v>
       </c>
       <c r="E875" t="s">
-        <v>1687</v>
+        <v>1616</v>
       </c>
       <c r="F875" t="s">
-        <v>1688</v>
+        <v>1617</v>
       </c>
       <c r="G875" t="n">
         <v>1</v>
@@ -31598,10 +31277,10 @@
         <v>875</v>
       </c>
       <c r="E876" t="s">
-        <v>1689</v>
+        <v>1618</v>
       </c>
       <c r="F876" t="s">
-        <v>1690</v>
+        <v>1619</v>
       </c>
       <c r="G876" t="n">
         <v>1</v>
@@ -31627,10 +31306,10 @@
         <v>876</v>
       </c>
       <c r="E877" t="s">
-        <v>1691</v>
+        <v>1620</v>
       </c>
       <c r="F877" t="s">
-        <v>1692</v>
+        <v>1621</v>
       </c>
       <c r="G877" t="n">
         <v>1</v>
@@ -31656,10 +31335,10 @@
         <v>877</v>
       </c>
       <c r="E878" t="s">
-        <v>1693</v>
+        <v>1622</v>
       </c>
       <c r="F878" t="s">
-        <v>1694</v>
+        <v>1623</v>
       </c>
       <c r="G878" t="n">
         <v>1</v>
@@ -31685,10 +31364,10 @@
         <v>878</v>
       </c>
       <c r="E879" t="s">
-        <v>1695</v>
+        <v>1624</v>
       </c>
       <c r="F879" t="s">
-        <v>1696</v>
+        <v>1008</v>
       </c>
       <c r="G879" t="n">
         <v>4</v>
@@ -31743,10 +31422,10 @@
         <v>880</v>
       </c>
       <c r="E881" t="s">
-        <v>1697</v>
+        <v>1625</v>
       </c>
       <c r="F881" t="s">
-        <v>1698</v>
+        <v>1626</v>
       </c>
       <c r="G881" t="n">
         <v>5</v>
@@ -31830,10 +31509,10 @@
         <v>883</v>
       </c>
       <c r="E884" t="s">
-        <v>1699</v>
+        <v>1627</v>
       </c>
       <c r="F884" t="s">
-        <v>1700</v>
+        <v>1628</v>
       </c>
       <c r="G884" t="n">
         <v>1</v>
@@ -31859,10 +31538,10 @@
         <v>884</v>
       </c>
       <c r="E885" t="s">
-        <v>1701</v>
+        <v>1629</v>
       </c>
       <c r="F885" t="s">
-        <v>1702</v>
+        <v>1630</v>
       </c>
       <c r="G885" t="n">
         <v>1</v>
@@ -31888,10 +31567,10 @@
         <v>885</v>
       </c>
       <c r="E886" t="s">
-        <v>1703</v>
+        <v>1631</v>
       </c>
       <c r="F886" t="s">
-        <v>1704</v>
+        <v>1632</v>
       </c>
       <c r="G886" t="n">
         <v>1</v>
@@ -31917,10 +31596,10 @@
         <v>886</v>
       </c>
       <c r="E887" t="s">
-        <v>1705</v>
+        <v>1633</v>
       </c>
       <c r="F887" t="s">
-        <v>1706</v>
+        <v>1634</v>
       </c>
       <c r="G887" t="n">
         <v>2</v>
@@ -31946,10 +31625,10 @@
         <v>887</v>
       </c>
       <c r="E888" t="s">
-        <v>1707</v>
+        <v>1635</v>
       </c>
       <c r="F888" t="s">
-        <v>1708</v>
+        <v>1636</v>
       </c>
       <c r="G888" t="n">
         <v>1</v>
@@ -31975,10 +31654,10 @@
         <v>888</v>
       </c>
       <c r="E889" t="s">
-        <v>1709</v>
+        <v>1637</v>
       </c>
       <c r="F889" t="s">
-        <v>1710</v>
+        <v>1638</v>
       </c>
       <c r="G889" t="n">
         <v>1</v>
@@ -32004,10 +31683,10 @@
         <v>889</v>
       </c>
       <c r="E890" t="s">
-        <v>1711</v>
+        <v>1639</v>
       </c>
       <c r="F890" t="s">
-        <v>1712</v>
+        <v>760</v>
       </c>
       <c r="G890" t="n">
         <v>2</v>
@@ -32033,10 +31712,10 @@
         <v>890</v>
       </c>
       <c r="E891" t="s">
-        <v>1713</v>
+        <v>1640</v>
       </c>
       <c r="F891" t="s">
-        <v>1714</v>
+        <v>1641</v>
       </c>
       <c r="G891" t="n">
         <v>1</v>
@@ -32062,10 +31741,10 @@
         <v>891</v>
       </c>
       <c r="E892" t="s">
-        <v>1715</v>
+        <v>1642</v>
       </c>
       <c r="F892" t="s">
-        <v>1716</v>
+        <v>1643</v>
       </c>
       <c r="G892" t="n">
         <v>1</v>
@@ -32091,10 +31770,10 @@
         <v>892</v>
       </c>
       <c r="E893" t="s">
-        <v>1717</v>
+        <v>1644</v>
       </c>
       <c r="F893" t="s">
-        <v>1718</v>
+        <v>756</v>
       </c>
       <c r="G893" t="n">
         <v>2</v>
@@ -32120,10 +31799,10 @@
         <v>893</v>
       </c>
       <c r="E894" t="s">
-        <v>1719</v>
+        <v>1645</v>
       </c>
       <c r="F894" t="s">
-        <v>1720</v>
+        <v>758</v>
       </c>
       <c r="G894" t="n">
         <v>1</v>
@@ -32149,10 +31828,10 @@
         <v>894</v>
       </c>
       <c r="E895" t="s">
-        <v>1721</v>
+        <v>1646</v>
       </c>
       <c r="F895" t="s">
-        <v>1722</v>
+        <v>1647</v>
       </c>
       <c r="G895" t="n">
         <v>2</v>
@@ -32178,10 +31857,10 @@
         <v>895</v>
       </c>
       <c r="E896" t="s">
-        <v>1723</v>
+        <v>1648</v>
       </c>
       <c r="F896" t="s">
-        <v>1724</v>
+        <v>1649</v>
       </c>
       <c r="G896" t="n">
         <v>2</v>
@@ -32207,10 +31886,10 @@
         <v>896</v>
       </c>
       <c r="E897" t="s">
-        <v>1725</v>
+        <v>1650</v>
       </c>
       <c r="F897" t="s">
-        <v>1726</v>
+        <v>1651</v>
       </c>
       <c r="G897" t="n">
         <v>1</v>
@@ -32236,10 +31915,10 @@
         <v>897</v>
       </c>
       <c r="E898" t="s">
-        <v>1727</v>
+        <v>1652</v>
       </c>
       <c r="F898" t="s">
-        <v>1728</v>
+        <v>772</v>
       </c>
       <c r="G898" t="n">
         <v>1</v>
@@ -32265,10 +31944,10 @@
         <v>898</v>
       </c>
       <c r="E899" t="s">
-        <v>1729</v>
+        <v>1653</v>
       </c>
       <c r="F899" t="s">
-        <v>1730</v>
+        <v>1654</v>
       </c>
       <c r="G899" t="n">
         <v>1</v>
@@ -32323,10 +32002,10 @@
         <v>900</v>
       </c>
       <c r="E901" t="s">
-        <v>1731</v>
+        <v>1655</v>
       </c>
       <c r="F901" t="s">
-        <v>1732</v>
+        <v>764</v>
       </c>
       <c r="G901" t="n">
         <v>2</v>
@@ -32352,10 +32031,10 @@
         <v>901</v>
       </c>
       <c r="E902" t="s">
-        <v>1733</v>
+        <v>1656</v>
       </c>
       <c r="F902" t="s">
-        <v>1734</v>
+        <v>1657</v>
       </c>
       <c r="G902" t="n">
         <v>1</v>
@@ -32381,10 +32060,10 @@
         <v>902</v>
       </c>
       <c r="E903" t="s">
-        <v>1735</v>
+        <v>1658</v>
       </c>
       <c r="F903" t="s">
-        <v>1736</v>
+        <v>1659</v>
       </c>
       <c r="G903" t="n">
         <v>1</v>
@@ -32439,10 +32118,10 @@
         <v>904</v>
       </c>
       <c r="E905" t="s">
-        <v>1737</v>
+        <v>1660</v>
       </c>
       <c r="F905" t="s">
-        <v>1738</v>
+        <v>1661</v>
       </c>
       <c r="G905" t="n">
         <v>1</v>
@@ -32468,10 +32147,10 @@
         <v>905</v>
       </c>
       <c r="E906" t="s">
-        <v>1739</v>
+        <v>1662</v>
       </c>
       <c r="F906" t="s">
-        <v>1740</v>
+        <v>1663</v>
       </c>
       <c r="G906" t="n">
         <v>1</v>
@@ -32497,10 +32176,10 @@
         <v>906</v>
       </c>
       <c r="E907" t="s">
-        <v>1741</v>
+        <v>1664</v>
       </c>
       <c r="F907" t="s">
-        <v>1742</v>
+        <v>1665</v>
       </c>
       <c r="G907" t="n">
         <v>2</v>
@@ -32526,10 +32205,10 @@
         <v>907</v>
       </c>
       <c r="E908" t="s">
-        <v>1743</v>
+        <v>1666</v>
       </c>
       <c r="F908" t="s">
-        <v>1744</v>
+        <v>1667</v>
       </c>
       <c r="G908" t="n">
         <v>1</v>
@@ -32555,10 +32234,10 @@
         <v>908</v>
       </c>
       <c r="E909" t="s">
-        <v>1745</v>
+        <v>1668</v>
       </c>
       <c r="F909" t="s">
-        <v>1746</v>
+        <v>1669</v>
       </c>
       <c r="G909" t="n">
         <v>1</v>
@@ -32584,10 +32263,10 @@
         <v>909</v>
       </c>
       <c r="E910" t="s">
-        <v>1747</v>
+        <v>1670</v>
       </c>
       <c r="F910" t="s">
-        <v>1748</v>
+        <v>852</v>
       </c>
       <c r="G910" t="n">
         <v>1</v>
@@ -32613,10 +32292,10 @@
         <v>910</v>
       </c>
       <c r="E911" t="s">
-        <v>1749</v>
+        <v>1671</v>
       </c>
       <c r="F911" t="s">
-        <v>1750</v>
+        <v>1672</v>
       </c>
       <c r="G911" t="n">
         <v>1</v>
@@ -32642,10 +32321,10 @@
         <v>911</v>
       </c>
       <c r="E912" t="s">
-        <v>1751</v>
+        <v>1673</v>
       </c>
       <c r="F912" t="s">
-        <v>1752</v>
+        <v>100</v>
       </c>
       <c r="G912" t="n">
         <v>1</v>
@@ -32671,10 +32350,10 @@
         <v>912</v>
       </c>
       <c r="E913" t="s">
-        <v>1753</v>
+        <v>1674</v>
       </c>
       <c r="F913" t="s">
-        <v>1754</v>
+        <v>84</v>
       </c>
       <c r="G913" t="n">
         <v>1</v>
@@ -32700,10 +32379,10 @@
         <v>913</v>
       </c>
       <c r="E914" t="s">
-        <v>1755</v>
+        <v>1675</v>
       </c>
       <c r="F914" t="s">
-        <v>1756</v>
+        <v>1676</v>
       </c>
       <c r="G914" t="n">
         <v>1</v>
@@ -32729,10 +32408,10 @@
         <v>914</v>
       </c>
       <c r="E915" t="s">
-        <v>1757</v>
+        <v>1677</v>
       </c>
       <c r="F915" t="s">
-        <v>1758</v>
+        <v>1678</v>
       </c>
       <c r="G915" t="n">
         <v>1</v>
@@ -32758,10 +32437,10 @@
         <v>915</v>
       </c>
       <c r="E916" t="s">
-        <v>1759</v>
+        <v>1679</v>
       </c>
       <c r="F916" t="s">
-        <v>1760</v>
+        <v>1680</v>
       </c>
       <c r="G916" t="n">
         <v>1</v>
@@ -32787,10 +32466,10 @@
         <v>916</v>
       </c>
       <c r="E917" t="s">
-        <v>1761</v>
+        <v>1681</v>
       </c>
       <c r="F917" t="s">
-        <v>1762</v>
+        <v>1682</v>
       </c>
       <c r="G917" t="n">
         <v>1</v>
@@ -32816,10 +32495,10 @@
         <v>917</v>
       </c>
       <c r="E918" t="s">
-        <v>1763</v>
+        <v>1683</v>
       </c>
       <c r="F918" t="s">
-        <v>1764</v>
+        <v>94</v>
       </c>
       <c r="G918" t="n">
         <v>1</v>
@@ -32903,10 +32582,10 @@
         <v>920</v>
       </c>
       <c r="E921" t="s">
-        <v>1765</v>
+        <v>1684</v>
       </c>
       <c r="F921" t="s">
-        <v>1766</v>
+        <v>1685</v>
       </c>
       <c r="G921" t="n">
         <v>1</v>
@@ -32932,10 +32611,10 @@
         <v>921</v>
       </c>
       <c r="E922" t="s">
-        <v>1495</v>
+        <v>1440</v>
       </c>
       <c r="F922" t="s">
-        <v>1496</v>
+        <v>1441</v>
       </c>
       <c r="G922" t="n">
         <v>1</v>
@@ -32990,10 +32669,10 @@
         <v>923</v>
       </c>
       <c r="E924" t="s">
-        <v>1767</v>
+        <v>1686</v>
       </c>
       <c r="F924" t="s">
-        <v>1768</v>
+        <v>74</v>
       </c>
       <c r="G924" t="n">
         <v>2</v>
@@ -33019,10 +32698,10 @@
         <v>924</v>
       </c>
       <c r="E925" t="s">
-        <v>1769</v>
+        <v>1687</v>
       </c>
       <c r="F925" t="s">
-        <v>1770</v>
+        <v>1688</v>
       </c>
       <c r="G925" t="n">
         <v>1</v>
@@ -33048,10 +32727,10 @@
         <v>925</v>
       </c>
       <c r="E926" t="s">
-        <v>1771</v>
+        <v>1689</v>
       </c>
       <c r="F926" t="s">
-        <v>1772</v>
+        <v>78</v>
       </c>
       <c r="G926" t="n">
         <v>1</v>
@@ -33077,10 +32756,10 @@
         <v>926</v>
       </c>
       <c r="E927" t="s">
-        <v>1773</v>
+        <v>1690</v>
       </c>
       <c r="F927" t="s">
-        <v>1774</v>
+        <v>80</v>
       </c>
       <c r="G927" t="n">
         <v>1</v>
@@ -33106,10 +32785,10 @@
         <v>927</v>
       </c>
       <c r="E928" t="s">
-        <v>1775</v>
+        <v>1691</v>
       </c>
       <c r="F928" t="s">
-        <v>1776</v>
+        <v>1692</v>
       </c>
       <c r="G928" t="n">
         <v>1</v>
@@ -33135,10 +32814,10 @@
         <v>928</v>
       </c>
       <c r="E929" t="s">
-        <v>1777</v>
+        <v>1693</v>
       </c>
       <c r="F929" t="s">
-        <v>1778</v>
+        <v>1694</v>
       </c>
       <c r="G929" t="n">
         <v>1</v>
@@ -33164,10 +32843,10 @@
         <v>929</v>
       </c>
       <c r="E930" t="s">
-        <v>1779</v>
+        <v>1695</v>
       </c>
       <c r="F930" t="s">
-        <v>1780</v>
+        <v>1696</v>
       </c>
       <c r="G930" t="n">
         <v>1</v>
@@ -33193,10 +32872,10 @@
         <v>930</v>
       </c>
       <c r="E931" t="s">
-        <v>1781</v>
+        <v>1697</v>
       </c>
       <c r="F931" t="s">
-        <v>1782</v>
+        <v>300</v>
       </c>
       <c r="G931" t="n">
         <v>4</v>
@@ -33222,10 +32901,10 @@
         <v>931</v>
       </c>
       <c r="E932" t="s">
-        <v>1783</v>
+        <v>1698</v>
       </c>
       <c r="F932" t="s">
-        <v>1784</v>
+        <v>1699</v>
       </c>
       <c r="G932" t="n">
         <v>1</v>
@@ -33251,10 +32930,10 @@
         <v>932</v>
       </c>
       <c r="E933" t="s">
-        <v>1785</v>
+        <v>1700</v>
       </c>
       <c r="F933" t="s">
-        <v>1786</v>
+        <v>1701</v>
       </c>
       <c r="G933" t="n">
         <v>3</v>
@@ -33280,10 +32959,10 @@
         <v>933</v>
       </c>
       <c r="E934" t="s">
-        <v>1787</v>
+        <v>1702</v>
       </c>
       <c r="F934" t="s">
-        <v>1788</v>
+        <v>112</v>
       </c>
       <c r="G934" t="n">
         <v>1</v>
@@ -33309,10 +32988,10 @@
         <v>934</v>
       </c>
       <c r="E935" t="s">
-        <v>1789</v>
+        <v>1703</v>
       </c>
       <c r="F935" t="s">
-        <v>1790</v>
+        <v>122</v>
       </c>
       <c r="G935" t="n">
         <v>2</v>
@@ -33338,10 +33017,10 @@
         <v>935</v>
       </c>
       <c r="E936" t="s">
-        <v>1791</v>
+        <v>1704</v>
       </c>
       <c r="F936" t="s">
-        <v>1792</v>
+        <v>1705</v>
       </c>
       <c r="G936" t="n">
         <v>1</v>
@@ -33367,10 +33046,10 @@
         <v>936</v>
       </c>
       <c r="E937" t="s">
-        <v>1793</v>
+        <v>1706</v>
       </c>
       <c r="F937" t="s">
-        <v>1794</v>
+        <v>1707</v>
       </c>
       <c r="G937" t="n">
         <v>3</v>
@@ -33396,10 +33075,10 @@
         <v>937</v>
       </c>
       <c r="E938" t="s">
-        <v>1795</v>
+        <v>1708</v>
       </c>
       <c r="F938" t="s">
-        <v>1796</v>
+        <v>1709</v>
       </c>
       <c r="G938" t="n">
         <v>2</v>
@@ -33425,10 +33104,10 @@
         <v>938</v>
       </c>
       <c r="E939" t="s">
-        <v>1797</v>
+        <v>1710</v>
       </c>
       <c r="F939" t="s">
-        <v>1798</v>
+        <v>150</v>
       </c>
       <c r="G939" t="n">
         <v>1</v>
@@ -33454,10 +33133,10 @@
         <v>939</v>
       </c>
       <c r="E940" t="s">
-        <v>1799</v>
+        <v>1711</v>
       </c>
       <c r="F940" t="s">
-        <v>1800</v>
+        <v>1712</v>
       </c>
       <c r="G940" t="n">
         <v>1</v>
@@ -33483,10 +33162,10 @@
         <v>940</v>
       </c>
       <c r="E941" t="s">
-        <v>1801</v>
+        <v>1713</v>
       </c>
       <c r="F941" t="s">
-        <v>1802</v>
+        <v>142</v>
       </c>
       <c r="G941" t="n">
         <v>1</v>
@@ -33512,10 +33191,10 @@
         <v>941</v>
       </c>
       <c r="E942" t="s">
-        <v>1803</v>
+        <v>1714</v>
       </c>
       <c r="F942" t="s">
-        <v>1804</v>
+        <v>144</v>
       </c>
       <c r="G942" t="n">
         <v>1</v>
@@ -33541,10 +33220,10 @@
         <v>942</v>
       </c>
       <c r="E943" t="s">
-        <v>1805</v>
+        <v>1715</v>
       </c>
       <c r="F943" t="s">
-        <v>1806</v>
+        <v>126</v>
       </c>
       <c r="G943" t="n">
         <v>2</v>
@@ -33570,10 +33249,10 @@
         <v>943</v>
       </c>
       <c r="E944" t="s">
-        <v>1807</v>
+        <v>1716</v>
       </c>
       <c r="F944" t="s">
-        <v>1808</v>
+        <v>128</v>
       </c>
       <c r="G944" t="n">
         <v>1</v>
@@ -33599,10 +33278,10 @@
         <v>944</v>
       </c>
       <c r="E945" t="s">
-        <v>1809</v>
+        <v>1717</v>
       </c>
       <c r="F945" t="s">
-        <v>1810</v>
+        <v>1718</v>
       </c>
       <c r="G945" t="n">
         <v>1</v>
@@ -33628,10 +33307,10 @@
         <v>945</v>
       </c>
       <c r="E946" t="s">
-        <v>1811</v>
+        <v>1719</v>
       </c>
       <c r="F946" t="s">
-        <v>1812</v>
+        <v>1720</v>
       </c>
       <c r="G946" t="n">
         <v>1</v>
@@ -33657,10 +33336,10 @@
         <v>946</v>
       </c>
       <c r="E947" t="s">
-        <v>1813</v>
+        <v>1721</v>
       </c>
       <c r="F947" t="s">
-        <v>1814</v>
+        <v>1722</v>
       </c>
       <c r="G947" t="n">
         <v>1</v>
@@ -33686,10 +33365,10 @@
         <v>947</v>
       </c>
       <c r="E948" t="s">
-        <v>1815</v>
+        <v>1723</v>
       </c>
       <c r="F948" t="s">
-        <v>1816</v>
+        <v>1724</v>
       </c>
       <c r="G948" t="n">
         <v>1</v>
@@ -33715,10 +33394,10 @@
         <v>948</v>
       </c>
       <c r="E949" t="s">
-        <v>1817</v>
+        <v>1725</v>
       </c>
       <c r="F949" t="s">
-        <v>1818</v>
+        <v>1726</v>
       </c>
       <c r="G949" t="n">
         <v>6</v>
@@ -33744,10 +33423,10 @@
         <v>949</v>
       </c>
       <c r="E950" t="s">
-        <v>1819</v>
+        <v>1727</v>
       </c>
       <c r="F950" t="s">
-        <v>1820</v>
+        <v>1728</v>
       </c>
       <c r="G950" t="n">
         <v>3</v>
@@ -33802,10 +33481,10 @@
         <v>951</v>
       </c>
       <c r="E952" t="s">
-        <v>1821</v>
+        <v>1729</v>
       </c>
       <c r="F952" t="s">
-        <v>1822</v>
+        <v>1730</v>
       </c>
       <c r="G952" t="n">
         <v>1</v>
@@ -33831,10 +33510,10 @@
         <v>952</v>
       </c>
       <c r="E953" t="s">
-        <v>1823</v>
+        <v>1731</v>
       </c>
       <c r="F953" t="s">
-        <v>1824</v>
+        <v>984</v>
       </c>
       <c r="G953" t="n">
         <v>1</v>
@@ -33860,10 +33539,10 @@
         <v>953</v>
       </c>
       <c r="E954" t="s">
-        <v>1825</v>
+        <v>1732</v>
       </c>
       <c r="F954" t="s">
-        <v>1826</v>
+        <v>1733</v>
       </c>
       <c r="G954" t="n">
         <v>1</v>
@@ -33889,10 +33568,10 @@
         <v>954</v>
       </c>
       <c r="E955" t="s">
-        <v>1827</v>
+        <v>1734</v>
       </c>
       <c r="F955" t="s">
-        <v>1828</v>
+        <v>988</v>
       </c>
       <c r="G955" t="n">
         <v>1</v>
@@ -33918,10 +33597,10 @@
         <v>955</v>
       </c>
       <c r="E956" t="s">
-        <v>1829</v>
+        <v>1735</v>
       </c>
       <c r="F956" t="s">
-        <v>1830</v>
+        <v>1736</v>
       </c>
       <c r="G956" t="n">
         <v>1</v>
@@ -33947,10 +33626,10 @@
         <v>956</v>
       </c>
       <c r="E957" t="s">
-        <v>1831</v>
+        <v>1737</v>
       </c>
       <c r="F957" t="s">
-        <v>1832</v>
+        <v>1738</v>
       </c>
       <c r="G957" t="n">
         <v>1</v>
@@ -33976,10 +33655,10 @@
         <v>957</v>
       </c>
       <c r="E958" t="s">
-        <v>1833</v>
+        <v>1739</v>
       </c>
       <c r="F958" t="s">
-        <v>1834</v>
+        <v>1740</v>
       </c>
       <c r="G958" t="n">
         <v>1</v>
@@ -34005,10 +33684,10 @@
         <v>958</v>
       </c>
       <c r="E959" t="s">
-        <v>1835</v>
+        <v>1741</v>
       </c>
       <c r="F959" t="s">
-        <v>1836</v>
+        <v>1742</v>
       </c>
       <c r="G959" t="n">
         <v>1</v>
@@ -34034,10 +33713,10 @@
         <v>959</v>
       </c>
       <c r="E960" t="s">
-        <v>1837</v>
+        <v>1743</v>
       </c>
       <c r="F960" t="s">
-        <v>1838</v>
+        <v>1744</v>
       </c>
       <c r="G960" t="n">
         <v>4</v>
@@ -34063,10 +33742,10 @@
         <v>960</v>
       </c>
       <c r="E961" t="s">
-        <v>1839</v>
+        <v>1745</v>
       </c>
       <c r="F961" t="s">
-        <v>1840</v>
+        <v>1746</v>
       </c>
       <c r="G961" t="n">
         <v>1</v>
@@ -34092,10 +33771,10 @@
         <v>961</v>
       </c>
       <c r="E962" t="s">
-        <v>1841</v>
+        <v>1747</v>
       </c>
       <c r="F962" t="s">
-        <v>1842</v>
+        <v>970</v>
       </c>
       <c r="G962" t="n">
         <v>2</v>
@@ -34121,10 +33800,10 @@
         <v>962</v>
       </c>
       <c r="E963" t="s">
-        <v>1843</v>
+        <v>1748</v>
       </c>
       <c r="F963" t="s">
-        <v>1844</v>
+        <v>1749</v>
       </c>
       <c r="G963" t="n">
         <v>1</v>
@@ -34150,10 +33829,10 @@
         <v>963</v>
       </c>
       <c r="E964" t="s">
-        <v>1845</v>
+        <v>1750</v>
       </c>
       <c r="F964" t="s">
-        <v>1846</v>
+        <v>972</v>
       </c>
       <c r="G964" t="n">
         <v>2</v>
@@ -34179,10 +33858,10 @@
         <v>964</v>
       </c>
       <c r="E965" t="s">
-        <v>1847</v>
+        <v>1751</v>
       </c>
       <c r="F965" t="s">
-        <v>1848</v>
+        <v>1752</v>
       </c>
       <c r="G965" t="n">
         <v>1</v>
@@ -34208,10 +33887,10 @@
         <v>965</v>
       </c>
       <c r="E966" t="s">
-        <v>1849</v>
+        <v>1753</v>
       </c>
       <c r="F966" t="s">
-        <v>1850</v>
+        <v>1754</v>
       </c>
       <c r="G966" t="n">
         <v>1</v>
@@ -34237,10 +33916,10 @@
         <v>966</v>
       </c>
       <c r="E967" t="s">
-        <v>1851</v>
+        <v>1755</v>
       </c>
       <c r="F967" t="s">
-        <v>1852</v>
+        <v>1756</v>
       </c>
       <c r="G967" t="n">
         <v>2</v>
@@ -34266,10 +33945,10 @@
         <v>967</v>
       </c>
       <c r="E968" t="s">
-        <v>1853</v>
+        <v>1757</v>
       </c>
       <c r="F968" t="s">
-        <v>1854</v>
+        <v>104</v>
       </c>
       <c r="G968" t="n">
         <v>1</v>
@@ -34295,10 +33974,10 @@
         <v>968</v>
       </c>
       <c r="E969" t="s">
-        <v>1855</v>
+        <v>1758</v>
       </c>
       <c r="F969" t="s">
-        <v>1856</v>
+        <v>1759</v>
       </c>
       <c r="G969" t="n">
         <v>1</v>
@@ -34324,10 +34003,10 @@
         <v>969</v>
       </c>
       <c r="E970" t="s">
-        <v>1857</v>
+        <v>1760</v>
       </c>
       <c r="F970" t="s">
-        <v>1858</v>
+        <v>1761</v>
       </c>
       <c r="G970" t="n">
         <v>1</v>
@@ -34353,10 +34032,10 @@
         <v>970</v>
       </c>
       <c r="E971" t="s">
-        <v>1859</v>
+        <v>1762</v>
       </c>
       <c r="F971" t="s">
-        <v>1860</v>
+        <v>1763</v>
       </c>
       <c r="G971" t="n">
         <v>1</v>
@@ -34382,10 +34061,10 @@
         <v>971</v>
       </c>
       <c r="E972" t="s">
-        <v>1861</v>
+        <v>1764</v>
       </c>
       <c r="F972" t="s">
-        <v>1862</v>
+        <v>1765</v>
       </c>
       <c r="G972" t="n">
         <v>2</v>
@@ -34411,10 +34090,10 @@
         <v>972</v>
       </c>
       <c r="E973" t="s">
-        <v>1863</v>
+        <v>1766</v>
       </c>
       <c r="F973" t="s">
-        <v>1864</v>
+        <v>1006</v>
       </c>
       <c r="G973" t="n">
         <v>1</v>
@@ -34440,10 +34119,10 @@
         <v>973</v>
       </c>
       <c r="E974" t="s">
-        <v>1865</v>
+        <v>1767</v>
       </c>
       <c r="F974" t="s">
-        <v>1866</v>
+        <v>1768</v>
       </c>
       <c r="G974" t="n">
         <v>1</v>
@@ -34469,10 +34148,10 @@
         <v>974</v>
       </c>
       <c r="E975" t="s">
-        <v>1867</v>
+        <v>1769</v>
       </c>
       <c r="F975" t="s">
-        <v>1868</v>
+        <v>1770</v>
       </c>
       <c r="G975" t="n">
         <v>1</v>
@@ -34498,10 +34177,10 @@
         <v>975</v>
       </c>
       <c r="E976" t="s">
-        <v>1869</v>
+        <v>1771</v>
       </c>
       <c r="F976" t="s">
-        <v>1870</v>
+        <v>1772</v>
       </c>
       <c r="G976" t="n">
         <v>1</v>
@@ -34527,10 +34206,10 @@
         <v>976</v>
       </c>
       <c r="E977" t="s">
-        <v>1871</v>
+        <v>1773</v>
       </c>
       <c r="F977" t="s">
-        <v>1872</v>
+        <v>1774</v>
       </c>
       <c r="G977" t="n">
         <v>1</v>
@@ -34556,10 +34235,10 @@
         <v>977</v>
       </c>
       <c r="E978" t="s">
-        <v>1873</v>
+        <v>1775</v>
       </c>
       <c r="F978" t="s">
-        <v>1874</v>
+        <v>1776</v>
       </c>
       <c r="G978" t="n">
         <v>1</v>
@@ -34585,10 +34264,10 @@
         <v>978</v>
       </c>
       <c r="E979" t="s">
-        <v>1875</v>
+        <v>1777</v>
       </c>
       <c r="F979" t="s">
-        <v>1876</v>
+        <v>1778</v>
       </c>
       <c r="G979" t="n">
         <v>1</v>
@@ -34614,10 +34293,10 @@
         <v>979</v>
       </c>
       <c r="E980" t="s">
-        <v>1877</v>
+        <v>1779</v>
       </c>
       <c r="F980" t="s">
-        <v>1878</v>
+        <v>1780</v>
       </c>
       <c r="G980" t="n">
         <v>1</v>
@@ -34643,10 +34322,10 @@
         <v>980</v>
       </c>
       <c r="E981" t="s">
-        <v>1879</v>
+        <v>1781</v>
       </c>
       <c r="F981" t="s">
-        <v>1880</v>
+        <v>1782</v>
       </c>
       <c r="G981" t="n">
         <v>1</v>
@@ -34672,10 +34351,10 @@
         <v>981</v>
       </c>
       <c r="E982" t="s">
-        <v>1881</v>
+        <v>1783</v>
       </c>
       <c r="F982" t="s">
-        <v>1882</v>
+        <v>1784</v>
       </c>
       <c r="G982" t="n">
         <v>1</v>
@@ -34701,10 +34380,10 @@
         <v>982</v>
       </c>
       <c r="E983" t="s">
-        <v>1883</v>
+        <v>1785</v>
       </c>
       <c r="F983" t="s">
-        <v>1884</v>
+        <v>1786</v>
       </c>
       <c r="G983" t="n">
         <v>1</v>
@@ -34730,10 +34409,10 @@
         <v>983</v>
       </c>
       <c r="E984" t="s">
-        <v>1885</v>
+        <v>1787</v>
       </c>
       <c r="F984" t="s">
-        <v>1886</v>
+        <v>1788</v>
       </c>
       <c r="G984" t="n">
         <v>1</v>
@@ -34759,10 +34438,10 @@
         <v>984</v>
       </c>
       <c r="E985" t="s">
-        <v>1887</v>
+        <v>1789</v>
       </c>
       <c r="F985" t="s">
-        <v>1888</v>
+        <v>1790</v>
       </c>
       <c r="G985" t="n">
         <v>1</v>
@@ -34788,10 +34467,10 @@
         <v>985</v>
       </c>
       <c r="E986" t="s">
-        <v>1889</v>
+        <v>1791</v>
       </c>
       <c r="F986" t="s">
-        <v>1890</v>
+        <v>1792</v>
       </c>
       <c r="G986" t="n">
         <v>1</v>
@@ -34817,10 +34496,10 @@
         <v>986</v>
       </c>
       <c r="E987" t="s">
-        <v>1891</v>
+        <v>1793</v>
       </c>
       <c r="F987" t="s">
-        <v>1892</v>
+        <v>1010</v>
       </c>
       <c r="G987" t="n">
         <v>1</v>
@@ -34846,10 +34525,10 @@
         <v>987</v>
       </c>
       <c r="E988" t="s">
-        <v>1893</v>
+        <v>1794</v>
       </c>
       <c r="F988" t="s">
-        <v>1894</v>
+        <v>1795</v>
       </c>
       <c r="G988" t="n">
         <v>1</v>
@@ -34875,10 +34554,10 @@
         <v>988</v>
       </c>
       <c r="E989" t="s">
-        <v>1895</v>
+        <v>1796</v>
       </c>
       <c r="F989" t="s">
-        <v>1896</v>
+        <v>1797</v>
       </c>
       <c r="G989" t="n">
         <v>1</v>
@@ -34904,10 +34583,10 @@
         <v>989</v>
       </c>
       <c r="E990" t="s">
-        <v>1897</v>
+        <v>1798</v>
       </c>
       <c r="F990" t="s">
-        <v>1898</v>
+        <v>1799</v>
       </c>
       <c r="G990" t="n">
         <v>1</v>
@@ -34933,10 +34612,10 @@
         <v>990</v>
       </c>
       <c r="E991" t="s">
-        <v>1899</v>
+        <v>1800</v>
       </c>
       <c r="F991" t="s">
-        <v>1900</v>
+        <v>1801</v>
       </c>
       <c r="G991" t="n">
         <v>1</v>
@@ -34962,10 +34641,10 @@
         <v>991</v>
       </c>
       <c r="E992" t="s">
-        <v>1901</v>
+        <v>1802</v>
       </c>
       <c r="F992" t="s">
-        <v>1902</v>
+        <v>1016</v>
       </c>
       <c r="G992" t="n">
         <v>1</v>
@@ -34991,10 +34670,10 @@
         <v>992</v>
       </c>
       <c r="E993" t="s">
-        <v>1903</v>
+        <v>1803</v>
       </c>
       <c r="F993" t="s">
-        <v>1904</v>
+        <v>932</v>
       </c>
       <c r="G993" t="n">
         <v>1</v>
@@ -35020,10 +34699,10 @@
         <v>993</v>
       </c>
       <c r="E994" t="s">
-        <v>1905</v>
+        <v>1804</v>
       </c>
       <c r="F994" t="s">
-        <v>1906</v>
+        <v>1805</v>
       </c>
       <c r="G994" t="n">
         <v>1</v>
@@ -35049,10 +34728,10 @@
         <v>994</v>
       </c>
       <c r="E995" t="s">
-        <v>1907</v>
+        <v>1806</v>
       </c>
       <c r="F995" t="s">
-        <v>1908</v>
+        <v>924</v>
       </c>
       <c r="G995" t="n">
         <v>1</v>
@@ -35078,10 +34757,10 @@
         <v>995</v>
       </c>
       <c r="E996" t="s">
-        <v>1909</v>
+        <v>1807</v>
       </c>
       <c r="F996" t="s">
-        <v>1910</v>
+        <v>928</v>
       </c>
       <c r="G996" t="n">
         <v>2</v>
@@ -35107,10 +34786,10 @@
         <v>996</v>
       </c>
       <c r="E997" t="s">
-        <v>1911</v>
+        <v>1808</v>
       </c>
       <c r="F997" t="s">
-        <v>1912</v>
+        <v>930</v>
       </c>
       <c r="G997" t="n">
         <v>1</v>
@@ -35136,10 +34815,10 @@
         <v>997</v>
       </c>
       <c r="E998" t="s">
-        <v>1913</v>
+        <v>1809</v>
       </c>
       <c r="F998" t="s">
-        <v>1914</v>
+        <v>1810</v>
       </c>
       <c r="G998" t="n">
         <v>1</v>
@@ -35165,10 +34844,10 @@
         <v>998</v>
       </c>
       <c r="E999" t="s">
-        <v>1915</v>
+        <v>1811</v>
       </c>
       <c r="F999" t="s">
-        <v>1916</v>
+        <v>1812</v>
       </c>
       <c r="G999" t="n">
         <v>2</v>
@@ -35194,10 +34873,10 @@
         <v>999</v>
       </c>
       <c r="E1000" t="s">
-        <v>1917</v>
+        <v>1813</v>
       </c>
       <c r="F1000" t="s">
-        <v>1918</v>
+        <v>1814</v>
       </c>
       <c r="G1000" t="n">
         <v>1</v>
@@ -35223,10 +34902,10 @@
         <v>1000</v>
       </c>
       <c r="E1001" t="s">
-        <v>1919</v>
+        <v>1815</v>
       </c>
       <c r="F1001" t="s">
-        <v>1920</v>
+        <v>1816</v>
       </c>
       <c r="G1001" t="n">
         <v>1</v>
@@ -35252,10 +34931,10 @@
         <v>1001</v>
       </c>
       <c r="E1002" t="s">
-        <v>1921</v>
+        <v>1817</v>
       </c>
       <c r="F1002" t="s">
-        <v>1922</v>
+        <v>1818</v>
       </c>
       <c r="G1002" t="n">
         <v>1</v>
@@ -35281,10 +34960,10 @@
         <v>1002</v>
       </c>
       <c r="E1003" t="s">
-        <v>1923</v>
+        <v>1819</v>
       </c>
       <c r="F1003" t="s">
-        <v>1924</v>
+        <v>916</v>
       </c>
       <c r="G1003" t="n">
         <v>1</v>
@@ -35310,10 +34989,10 @@
         <v>1003</v>
       </c>
       <c r="E1004" t="s">
-        <v>1925</v>
+        <v>1820</v>
       </c>
       <c r="F1004" t="s">
-        <v>1926</v>
+        <v>1821</v>
       </c>
       <c r="G1004" t="n">
         <v>1</v>
@@ -35339,10 +35018,10 @@
         <v>1004</v>
       </c>
       <c r="E1005" t="s">
-        <v>1927</v>
+        <v>1822</v>
       </c>
       <c r="F1005" t="s">
-        <v>1928</v>
+        <v>1823</v>
       </c>
       <c r="G1005" t="n">
         <v>1</v>
@@ -35368,10 +35047,10 @@
         <v>1005</v>
       </c>
       <c r="E1006" t="s">
-        <v>1929</v>
+        <v>1824</v>
       </c>
       <c r="F1006" t="s">
-        <v>1930</v>
+        <v>910</v>
       </c>
       <c r="G1006" t="n">
         <v>1</v>
@@ -35397,10 +35076,10 @@
         <v>1006</v>
       </c>
       <c r="E1007" t="s">
-        <v>1931</v>
+        <v>1825</v>
       </c>
       <c r="F1007" t="s">
-        <v>1932</v>
+        <v>1826</v>
       </c>
       <c r="G1007" t="n">
         <v>1</v>
@@ -35426,10 +35105,10 @@
         <v>1007</v>
       </c>
       <c r="E1008" t="s">
-        <v>1933</v>
+        <v>1827</v>
       </c>
       <c r="F1008" t="s">
-        <v>1934</v>
+        <v>1828</v>
       </c>
       <c r="G1008" t="n">
         <v>1</v>
@@ -35455,10 +35134,10 @@
         <v>1008</v>
       </c>
       <c r="E1009" t="s">
-        <v>1935</v>
+        <v>1829</v>
       </c>
       <c r="F1009" t="s">
-        <v>1936</v>
+        <v>1022</v>
       </c>
       <c r="G1009" t="n">
         <v>1</v>
@@ -35484,10 +35163,10 @@
         <v>1009</v>
       </c>
       <c r="E1010" t="s">
-        <v>1937</v>
+        <v>1830</v>
       </c>
       <c r="F1010" t="s">
-        <v>1938</v>
+        <v>1831</v>
       </c>
       <c r="G1010" t="n">
         <v>1</v>
@@ -35513,10 +35192,10 @@
         <v>1010</v>
       </c>
       <c r="E1011" t="s">
-        <v>1939</v>
+        <v>1832</v>
       </c>
       <c r="F1011" t="s">
-        <v>1940</v>
+        <v>1833</v>
       </c>
       <c r="G1011" t="n">
         <v>1</v>
@@ -35542,10 +35221,10 @@
         <v>1011</v>
       </c>
       <c r="E1012" t="s">
-        <v>1941</v>
+        <v>1834</v>
       </c>
       <c r="F1012" t="s">
-        <v>1942</v>
+        <v>1835</v>
       </c>
       <c r="G1012" t="n">
         <v>1</v>
@@ -35571,10 +35250,10 @@
         <v>1012</v>
       </c>
       <c r="E1013" t="s">
-        <v>1943</v>
+        <v>1836</v>
       </c>
       <c r="F1013" t="s">
-        <v>1944</v>
+        <v>1837</v>
       </c>
       <c r="G1013" t="n">
         <v>1</v>
@@ -35600,10 +35279,10 @@
         <v>1013</v>
       </c>
       <c r="E1014" t="s">
-        <v>1945</v>
+        <v>1838</v>
       </c>
       <c r="F1014" t="s">
-        <v>1946</v>
+        <v>1839</v>
       </c>
       <c r="G1014" t="n">
         <v>1</v>

--- a/xlsx/各国首都列表_intext.xlsx
+++ b/xlsx/各国首都列表_intext.xlsx
@@ -29,7 +29,7 @@
     <t>世界政區索引</t>
   </si>
   <si>
-    <t>政策_政策_美國_各国首都列表</t>
+    <t>体育运动_体育运动_伊朗_各国首都列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
